--- a/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.11.xlsx
+++ b/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.11.xlsx
@@ -15,12 +15,2151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="715">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>booktitle</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>8585411</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>François-Lavet, Vincent and Henderson, Peter and Islam, Riashat and Bellemare, Marc G. and Pineau, Joelle</t>
+  </si>
+  <si>
+    <t>An Introduction to Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Deep reinforcement learning is the combination of reinforcement learning (RL) and deep learning. This field of research has recently been able to solve a wide range of complex decision-making tasks that were previously out of reach for a machine. Deep RL opens up many new applications in domains such as healthcare, robotics, smart grids, finance, and many more. This book provides the reader with a starting point for understanding the topic. Although written at a research level it provides a comprehensive and accessible introduction to deep reinforcement learning models, algorithms and techniques. Particular focus is on the aspects related to generalization and how deep RL can be used for practical applications. Written by recognized experts, this book is an important introduction to Deep Reinforcement Learning for practitioners, researchers and students alike.</t>
+  </si>
+  <si>
+    <t>10.1561/2200000071</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>9781680835397</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8585411</t>
+  </si>
+  <si>
+    <t>10897651</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>Dai, Yanran and Li, Jing and Jiang, Yuqi and Qin, Haidong and Liang, Bang and Hong, Shikuan and Pan, Haozhe and Yang, Tao</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>331-353</t>
+  </si>
+  <si>
+    <t>Free-viewpoint video allows the user to view objects from any virtual perspective, creating an immersive visual experience. This technology enhances the interactivity and freedom of multimedia performances. However, many free-viewpoint video synthesis methods hardly satisfy the requirement to work in real time with high precision, particularly for sports fields having large areas and numerous moving objects. To address these issues, we propose a free-viewpoint video synthesis method based on distance field acceleration. The central idea is to fuse multi-view distance field information and use it to adjust the search step size adaptively. Adaptive step size search is used in two ways: for fast estimation of multi-object three-dimensional surfaces, and synthetic view rendering based on global occlusion judgement. We have implemented our ideas using parallel computing for interactive display, using CUDA and OpenGL frameworks, and have used real-world and simulated experimental datasets for evaluation. The results show that the proposed method can render free-viewpoint videos with multiple objects on large sports fields at 25 fps. Furthermore, the visual quality of our synthetic novel viewpoint images exceeds that of state-of-the-art neural-rendering-based methods.</t>
+  </si>
+  <si>
+    <t>Rendering (computer graphics);Three-dimensional displays;Cameras;Streaming media;Sports;Training;Real-time systems;Search problems;Image reconstruction;Solid modeling;free-viewpoint video;view synthesis;camera array;distance field;sports video</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-022-0323-3</t>
+  </si>
+  <si>
+    <t>2096-0662</t>
+  </si>
+  <si>
+    <t>Computational Visual Media</t>
+  </si>
+  <si>
+    <t>Real-time distance field acceleration based free-viewpoint video synthesis for large sports fields</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>10162705</t>
+  </si>
+  <si>
+    <t>Song, Logan</t>
+  </si>
+  <si>
+    <t>Journey to Become a Google Cloud Machine Learning Engineer: Build the mind and hand of a Google Certified ML professional</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Prepare for the GCP ML certification exam along with exploring cloud computing and machine learning concepts and gaining Google Cloud ML skillsKey FeaturesA comprehensive yet easy-to-follow Google Cloud machine learning study guideExplore full-spectrum and step-by-step practice examples to develop hands-on skillsRead through and learn from in-depth discussions of Google ML certification exam questionsBook DescriptionThis book aims to provide a study guide to learn and master machine learning in Google Cloud: to build a broad and strong knowledge base, train hands-on skills, and get certified as a Google Cloud Machine Learning Engineer. The book is for someone who has the basic Google Cloud Platform (GCP) knowledge and skills, and basic Python programming skills, and wants to learn machine learning in GCP to take their next step toward becoming a Google Cloud Certified Machine Learning professional. The book starts by laying the foundations of Google Cloud Platform and Python programming, followed the by building blocks of machine learning, then focusing on machine learning in Google Cloud, and finally ends the studying for the Google Cloud Machine Learning certification by integrating all the knowledge and skills together. The book is based on the graduate courses the author has been teaching at the University of Texas at Dallas. When going through the chapters, the reader is expected to study the concepts, complete the exercises, understand and practice the labs in the appendices, and study each exam question thoroughly. Then, at the end of the learning journey, you can expect to harvest the knowledge, skills, and a certificate.What you will learnProvision Google Cloud services related to data science and machine learningProgram with the Python programming language and data science librariesUnderstand machine learning concepts and model development processesExplore deep learning concepts and neural networksBuild, train, and deploy ML models with Google BigQuery ML, Keras, and Google Cloud Vertex AIDiscover the Google Cloud ML Application Programming Interface (API)Prepare to achieve Google Cloud Professional Machine Learning Engineer certificationWho this book is forAnyone from the cloud computing, data analytics, and machine learning domains, such as cloud engineers, data scientists, data engineers, ML practitioners, and engineers, will be able to acquire the knowledge and skills and achieve the Google Cloud professional ML Engineer certification with this study guide. Basic knowledge of Google Cloud Platform and Python programming is required to get the most out of this book.</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>9781803239415</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162705</t>
+  </si>
+  <si>
+    <t>10769098</t>
+  </si>
+  <si>
+    <t>Joseph, Manu and Tackes, Jeffrey and Bergmeir, Christoph</t>
+  </si>
+  <si>
+    <t>Modern Time Series Forecasting with Python: Industry-ready machine learning and deep learning time series analysis with PyTorch and pandas</t>
+  </si>
+  <si>
+    <t>Learn traditional and cutting-edge machine learning (ML) and deep learning techniques and best practices for time series forecasting, including global forecasting models, conformal prediction, and transformer architecturesKey FeaturesApply ML and global models to improve forecasting accuracy through practical examplesEnhance your time series toolkit by using deep learning models, including RNNs, transformers, and N-BEATSLearn probabilistic forecasting with conformal prediction, Monte Carlo dropout, and quantile regressionsPurchase of the print or Kindle book includes a free eBook in PDF formatBook DescriptionPredicting the future, whether it's market trends, energy demand, or website traffic, has never been more crucial. This practical, hands-on guide empowers you to build and deploy powerful time series forecasting models. Whether you’re working with traditional statistical methods or cutting-edge deep learning architectures, this book provides structured learning and best practices for both. Starting with the basics, this data science book introduces fundamental time series concepts, such as ARIMA and exponential smoothing, before gradually progressing to advanced topics, such as machine learning for time series, deep neural networks, and transformers. As part of your fundamentals training, you’ll learn preprocessing, feature engineering, and model evaluation. As you progress, you’ll also explore global forecasting models, ensemble methods, and probabilistic forecasting techniques. This new edition goes deeper into transformer architectures and probabilistic forecasting, including new content on the latest time series models, conformal prediction, and hierarchical forecasting. Whether you seek advanced deep learning insights or specialized architecture implementations, this edition provides practical strategies and new content to elevate your forecasting skills.What you will learnBuild machine learning models for regression-based time series forecastingApply powerful feature engineering techniques to enhance prediction accuracyTackle common challenges like non-stationarity and seasonalityCombine multiple forecasts using ensembling and stacking for superior resultsExplore cutting-edge advancements in probabilistic forecasting and handle intermittent or sparse time seriesEvaluate and validate your forecasts using best practices and statistical metricsWho this book is forThis book is ideal for data scientists, financial analysts, quantitative analysts, machine learning engineers, and researchers who need to model time-dependent data across industries, such as finance, energy, meteorology, risk analysis, and retail. Whether you are a professional looking to apply cutting-edge models to real-world problems or a student aiming to build a strong foundation in time series analysis and forecasting, this book will provide the tools and techniques you need. Familiarity with Python and basic machine learning concepts is recommended.</t>
+  </si>
+  <si>
+    <t>9781835883198</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769098</t>
+  </si>
+  <si>
+    <t>10845197</t>
+  </si>
+  <si>
+    <t>Wang, Wenbo and Wang, Yuwen and Zhang, Jun and Zhang, Weibin</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>The attention mechanism has gained significant prominence in visual-based object detection due to its outstanding efficiency and adaptability. This paper addresses the challenges of current Attention Mechanisms (AM) in traffic object detection tasks utilizing Camera-Radar Fusion (CRF) technology. A novel Multiple Attention Mechanism for Camera-Radar Fusion Object Detection (MAM-CRF) is proposed. A new network architecture is designed specifically for CRF networks to seamlessly integrate with existing vision-based AM modules. Additionally, an innovative Azimuth Attention Mechanism (AAM) module is developed, combining visual and radar data to enhance the network's focus on azimuthal features. A data scrambling technique is also introduced to reduce over-reliance on individual sensors in fusion-based methods. In the absence of a publicly available dataset tailored to this task, the Camera-Radar University of Washington (CRUW) dataset was selected and modified. Furthermore, a new dataset, the Camera-Radar Nanjing University of Science and Technology Version 1.0 (CRNJUST-v1.0), was created to validate the proposed methodology. Results demonstrate that MAM-CRF improves performance by over 2% with only a marginal complexity increase of 5%. The method also exhibits robust performance under severe data disturbances. Lightweight and portable, MAM-CRF is well-suited for a wide range of CRF applications.</t>
+  </si>
+  <si>
+    <t>Radar;Radar imaging;Object detection;Cameras;Radar detection;Azimuth;Attention mechanisms;Feature extraction;Radio frequency;Active appearance model;Attention mechanism;camera and radar fusion;computer vision;object detection;pattern recognition;signal processing</t>
+  </si>
+  <si>
+    <t>10.1109/TVT.2025.3531379</t>
+  </si>
+  <si>
+    <t>1939-9359</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Vehicular Technology</t>
+  </si>
+  <si>
+    <t>Multiple Attention Mechanism for Camera-Radar Fusion Object Detection</t>
+  </si>
+  <si>
+    <t>10884697</t>
+  </si>
+  <si>
+    <t>Dong, Yuezhou and Qin, Ke and Ke, Pei and Liang, Shuang and Luo, Guangchun</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Recent advancements in language models have greatly improved dialogue systems, but they still face challenges in generating personalized responses that are consistent with the user’s persona and dialogue context. Existing approaches typically model dialogue context and persona information together in a unified manner, but they lack fine-grained differentiation between the two, leading to inaccurate user modeling. This misalignment hinders the ability of dialogue systems to produce personalized responses. In this work, we propose CKE (Cross-Graph Knowledge Exchange), a novel algorithm designed to enhance personalized response generation in dialogue systems. CKE constructs separate dialogue user graphs for each party in the dialogue, representing both their dialogue context and persona information. These graphs are then utilized to perform cross-graph structured knowledge aggregation, where the aggregation is under supervised by both its own and the other party’s persona and dialogue context, providing richer, more accurate representations. Furthermore, CKE introduces a hybrid prompt template that combines both discrete and continuous elements, improving the language model’s ability to leverage graph-structured information. The experimental results demonstrate that CKE significantly outperforms existing baseline methods in generating more coherent, contextually appropriate, and personalized responses in dialogue systems.</t>
+  </si>
+  <si>
+    <t>Context modeling;Data models;Computational modeling;Training;Real-time systems;Industrial Internet of Things;Fans;Encoding;Electronic mail;Semantics;Personalized Dialogue Generation;Knowledge Graph;Dialogue User Graph;Graph Neural Network</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2025.3541258</t>
+  </si>
+  <si>
+    <t>2327-4662</t>
+  </si>
+  <si>
+    <t>IEEE Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>Cross-graph Knowledge Exchange for Personalized Response Generation in Dialogue Systems</t>
+  </si>
+  <si>
+    <t>10949193</t>
+  </si>
+  <si>
+    <t>Du, Zhenjiang and Liu, Zhitao and Wang, Guan and Wei, Jiwei and Yussif, Sophyani Banaamwini and Wang, Zheng and Xie, Ning and Yang, Yang</t>
+  </si>
+  <si>
+    <t>Point clouds serve as the foundational representation of 3D objects, playing a pivotal role in both computer vision and computer graphics. Recently, the acquisition of point clouds has been effortless because of the development of hardware devices. However, the collected point clouds may be incomplete due to environmental conditions, such as occlusion. Therefore, completing partial point clouds becomes an essential task. The majority of current methods address point cloud completion via the utilization of shape priors. While these methods have demonstrated commendable performance, they often encounter challenges in preserving the global structural and geometric details of the 3D shape. In contrast to those mentioned earlier, we propose a novel cross-modal coarse-to-fine network (CMNet) for point cloud completion. Our method utilizes additional image information to provide global information, thus avoiding the loss of structure. To ensure that the generated results contain sufficient geometric details, we propose a coarse-to-fine learning approach based on multiple patches. Specifically, we encode the image and use multiple generators to generate multiple coarse patches, which are combined into a complete shape. Subsequently, based on the coarse patches generated in advance, we generate fine patches by combining partial point cloud information. Experimental results show that our method achieves state-of-the-art performance on point cloud completion.</t>
+  </si>
+  <si>
+    <t>Point cloud compression;Shape;Three-dimensional displays;Feature extraction;Generators;Deep learning;Decoding;Data mining;Training;Transformers;Point Cloud;Cross-modal;Shape Completion;Patch Generation;Coarse-to-fine</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3557842</t>
+  </si>
+  <si>
+    <t>1558-2205</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Circuits and Systems for Video Technology</t>
+  </si>
+  <si>
+    <t>CMNet: Cross-Modal Coarse-to-Fine Network for Point Cloud Completion Based on Patches</t>
+  </si>
+  <si>
+    <t>10769352</t>
+  </si>
+  <si>
+    <t>Khedher, Omar</t>
+  </si>
+  <si>
+    <t>Mastering OpenStack: Implement the latest techniques for designing and deploying an operational, production-ready private cloud</t>
+  </si>
+  <si>
+    <t>Design and manage a powerful OpenStack cloud with practical insights from real-world examplesKey FeaturesSimplify the architecture complexity of the OpenStack ecosystem with new container and networking optionsApply best practices to operate and manage large OpenStack deployments with confidenceDesign and implement hybrid cloud setups using OpenStack and public cloudsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionOpenStack provides flexibility and control for designing and deploying robust and scalable cloud infrastructures, which has led to it having one of the largest open source communities in the cloud market. This book delves deep into the OpenStack architecture, dissecting each component to guide you in architecting your cloud with precision. From essential components to cutting-edge services, this book offers a step-by step approach, ensuring you grasp the fundamentals before exploring the latest advancements. This updated edition guides you through the deployment process, integrating secure best practices inspired by the DevSecOps philosophy. You’ll also explore the Antelope release, covering new services such as container management and software-defined networking (SDN). The book outlines best practices for running and managing fault-tolerant, secure, monitored, and high-performing setups. In the last part, it navigates the convergence of public and private clouds, covering hybrid models through use cases of managing Kubernetes-based applications in OpenStack private and public clouds. By the end of the book, you’ll be well versed in the latest OpenStack advancements, ready to lead your organization on a successful cloud journey.What you will learnExplore the latest design patterns in the OpenStack ecosystemImplement DevSecOps practices for agile and secure deployment managementEnsure resilience, fault tolerance, and performance in your cloud setupStay up to date with OpenStack networking and storage advancementsMaster operational best practices for managing a large-scale cloud setupDiscover logging and monitoring options for your cloudGet acquainted with new services such as SDN and containersUnderstand how to extend OpenStack's capabilities through a hybrid modelWho this book is forThis book is for OpenStack administrators, cloud and enterprise architects, and system and DevOps engineers looking to launch a private cloud with OpenStack. If you’re a cloud advisor, consultant, or evangelist, you’ll benefit from the expert insights, and if you’re a software developer or system operator aiming to accelerate your development cycle and agility, this book will help you bridge the gap between these roles. Basic knowledge of OpenStack, along with a prior understanding of systems, virtualization, and networking, is recommended.</t>
+  </si>
+  <si>
+    <t>9781835466858</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769352</t>
+  </si>
+  <si>
+    <t>8384200</t>
+  </si>
+  <si>
+    <t>Abbe, Emmanuel</t>
+  </si>
+  <si>
+    <t>Community Detection and Stochastic Block Models</t>
+  </si>
+  <si>
+    <t>The field of community detection has been expanding greatly since the 1980s, with a remarkable diversity of models and algorithms developed in different communities like machine learning, computer science, network science, social science, and statistical physics. Various fundamental questions remain nonetheless unsettled, such as: Are there really communities? Algorithms may output community structures, but are these meaningful or artefacts? Can we always extract the communities when they are present; fully, partially? And what is a good benchmark to measure the performance of algorithms, and how good are the current algorithms? This monograph describes recent developments aiming at answering these questions in the context of block models. Addressing the issues from an information-theoretic view-point, the author gives a comprehensive description of the historical and recent work that has led to key new concepts in the various recovery requirements for community detection. The monograph provides a compact introduction to community detection, which enables the reader to apply these techniques in applications such as understanding sociological behavior, protein to protein interactions; gene expressions; recommendation systems; medical prognosis; DNA 3D folding; image segmentation, natural language processing, product-customer segmentation, webpage sorting, and many more.</t>
+  </si>
+  <si>
+    <t>10.1561/0100000067</t>
+  </si>
+  <si>
+    <t>9781680834772</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8384200</t>
+  </si>
+  <si>
+    <t>10475610</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>Bender, Magnus and Braun, Tanya and Möller, Ralf and Gehrke, Marcel</t>
+  </si>
+  <si>
+    <t>2024 IEEE 18th International Conference on Semantic Computing (ICSC)</t>
+  </si>
+  <si>
+    <t>17-24</t>
+  </si>
+  <si>
+    <t>An agent providing an information retrieval service may work with a corpus of text documents. The documents in the corpus may contain annotations such as Subjective Content Descriptions (SCD)—additional data associated with different sentences of the documents. Each SCD is associated with multiple sentences of the corpus and has relations among each other. The agent uses the SCDs to create its answers in response to user supplied queries. However, a user of the agent may not be the creator of the SCDs for the corpus. Hence, answers may be considered faulty by an agent’s user, because the SCDs may not exactly match the perceptions of an agent’s user. A naive and very costly approach would be to ask each user to completely create all the SCD themselves. To circumvent this, this paper presents ReFrESH, an approach for Relation-preserving Feedback-reliant Enhancement of SCDs by Humans. An agent’s user can give feedback about faulty answers to the agent. This feedback is then used by ReFrESH to update the SCDs incrementally. Using ReFrESH, SCDs can be refreshed with feedback by humans and it allows users to build even better SCDs for their needs.</t>
+  </si>
+  <si>
+    <t>Annotations;Fitting;Semantics;Information retrieval;Subjective Content Descriptions (SCDs);Text Annotation;Information Retrieval Agent;Incorporate Human Feedback;Incremental Model Updates</t>
+  </si>
+  <si>
+    <t>10.1109/ICSC59802.2024.00010</t>
+  </si>
+  <si>
+    <t>2472-9671</t>
+  </si>
+  <si>
+    <t>ReFrESH – Relation-preserving Feedback-reliant Enhancement of Subjective Content Descriptions</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>10320248</t>
+  </si>
+  <si>
+    <t>INBOOK</t>
+  </si>
+  <si>
+    <t>Minoli, Daniel and Occhiogrosso, Benedict</t>
+  </si>
+  <si>
+    <t>AI Applications to Communications and Information Technologies: The Role of Ultra Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>173-256</t>
+  </si>
+  <si>
+    <t>This chapter explores machine learning techniques for imaging and computer vision (CV). It focuses on the use of artificial intelligence to interpret or enhance images in support of applications such as classification, detection, CV, face recognition, surveillance, situational awareness, and medical imaging. Neural networks (NNs), deep neural networks (DNNs), and ultra deep NNs play important roles in automatic processing of large bodies of data, especially in the video/CV arena. There are various types of NNs including feed&amp;#x2010;forward networks and convolutional neural networks (CNNs). A CNN is a DNN with a convolutional structure. CNNs have become prevalent in the CV field in recent years: they are now often used for vision and image recognition applications. Convolution has applications that include signal processing, image processing, CV, among others. In imaging applications, convolutions are used for extracting shapes and curves in an image.</t>
+  </si>
+  <si>
+    <t>Convolution;Artificial neural networks;Convolutional neural networks;Feature extraction;Image color analysis;Computational modeling;Training</t>
+  </si>
+  <si>
+    <t>10.1002/9781394190034.ch4</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>9781394190027</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10320248</t>
+  </si>
+  <si>
+    <t>Current and Evolving Applications to Video and Imaging</t>
+  </si>
+  <si>
+    <t>10433842</t>
+  </si>
+  <si>
+    <t>K, Rama Abirami and Zonta, Tiago and Sathiyanarayanan, Mithileysh</t>
+  </si>
+  <si>
+    <t>2024 IEEE 3rd International Conference on AI in Cybersecurity (ICAIC)</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>The growth of the Internet has aroused people’s attention toward network security. A secure network environment is fundamental for the expeditious and impeccable development of the Internet. The majority of internet-based tasks can be completed with the help of a web browser. Although many web applications add browser extensions to improve their functionality, some of these extensions are malicious and can access sensitive data without the user’s knowledge. Browser extensions with malicious intent present a growing security concern and have quickly become one of the most prevalent methods used to compromise Internet security. This is largely due to their widespread usage and the extensive privileges they possess. After being installed, these malicious extensions are executed and make an attempt to compromise the victim’s browser. This makes them particularly elusive and challenging to combat. It is crucial to promptly develop an effective strategy to address the threats posed by these extensions. A comprehensive review of the research on browser extension vulnerabilities is presented in this paper. The role of malicious links in web browser extensions are examined for several attacks. Detection of malicious browser extension on various aspects are represented namely Intrusion malicious web browser extensions detection using Intrusion detection, Machine learning based detection methods and Deep learning based techniques to mitigate malicious web browser extensions are examined. This study investigates the critical function of malicious detection in protecting web browsers, looking at the changing threats and risk-reduction tactics. A robust cybersecurity frameworks can be created that not only respond to known threats but also anticipate and thwart the strategies of future cyber adversaries by realizing the significance of proactive detection. Thus this survey provides a detailed comparison of various solutions for malicious browser extension.</t>
+  </si>
+  <si>
+    <t>Surveys;Deep learning;Uniform resource locators;Intrusion detection;Network security;Browsers;Task analysis;Cyber-attacks;Machine learning;Malicious Browser extension;and Malicious Uniform Resource Locator (URL)</t>
+  </si>
+  <si>
+    <t>10.1109/ICAIC60265.2024.10433842</t>
+  </si>
+  <si>
+    <t>A Holistic Review on Detection of Malicious Browser Extensions and Links using Deep Learning</t>
+  </si>
+  <si>
+    <t>10163586</t>
+  </si>
+  <si>
+    <t>Moocarme, Matthew and So, Anthony and Maddalone, Anthony</t>
+  </si>
+  <si>
+    <t>The TensorFlow Workshop: A hands-on guide to building deep learning models from scratch using real-world datasets</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Get started with TensorFlow fundamentals to build and train deep learning models with real-world data, practical exercises, and challenging activitiesKey FeaturesUnderstand the fundamentals of tensors, neural networks, and deep learningDiscover how to implement and fine-tune deep learning models for real-world datasetsBuild your experience and confidence with hands-on exercises and activitiesBook DescriptionGetting to grips with tensors, deep learning, and neural networks can be intimidating and confusing for anyone, no matter their experience level. The breadth of information out there, often written at a very high level and aimed at advanced practitioners, can make getting started even more challenging. If this sounds familiar to you, The TensorFlow Workshop is here to help. Combining clear explanations, realistic examples, and plenty of hands-on practice, it’ll quickly get you up and running. You’ll start off with the basics – learning how to load data into TensorFlow, perform tensor operations, and utilize common optimizers and activation functions. As you progress, you’ll experiment with different TensorFlow development tools, including TensorBoard, TensorFlow Hub, and Google Colab, before moving on to solve regression and classification problems with sequential models. Building on this solid foundation, you’ll learn how to tune models and work with different types of neural network, getting hands-on with real-world deep learning applications such as text encoding, temperature forecasting, image augmentation, and audio processing. By the end of this deep learning book, you’ll have the skills, knowledge, and confidence to tackle your own ambitious deep learning projects with TensorFlow.What you will learnGet to grips with TensorFlow’s mathematical operationsPre-process a wide variety of tabular, sequential, and image dataUnderstand the purpose and usage of different deep learning layersPerform hyperparameter-tuning to prevent overfitting of training dataUse pre-trained models to speed up the development of learning modelsGenerate new data based on existing patterns using generative modelsWho this book is forThis TensorFlow book is for anyone who wants to develop their understanding of deep learning and get started building neural networks with TensorFlow. Basic knowledge of Python programming and its libraries, as well as a general understanding of the fundamentals of data science and machine learning, will help you grasp the topics covered in this book more easily.</t>
+  </si>
+  <si>
+    <t>9781800200227</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163586</t>
+  </si>
+  <si>
+    <t>10925598</t>
+  </si>
+  <si>
+    <t>Lessons from the Pandemic for Healthcare Operations</t>
+  </si>
+  <si>
+    <t>Lessons from the Pandemic for Healthcare Operations delves into the lessons learned from the COVID-19 pandemic that can be applied to the post-pandemic world to enhance efficiency, equity, and fairness in healthcare operations. It emphasizes the importance of preparedness in combating future pandemics or public health disasters, regardless of when or where they may occur. This work offers a unique perspective through which to view the evolving outlines of healthcare delivery, policy, and research. This is illustrated using several real-world experiences, empirical studies, and forward-looking insights. The contributions fall under three broad themes: the management of policies and funding in healthcare, the role of data and data-driven research, and accessible healthcare services during and after the pandemic. </t>
+  </si>
+  <si>
+    <t>9781638284659</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10925598</t>
+  </si>
+  <si>
+    <t>10769207</t>
+  </si>
+  <si>
+    <t>Pinto, Ivo and Santos, Pedro</t>
+  </si>
+  <si>
+    <t>AWS Cloud Projects: Strengthen your AWS skills through practical projects, from websites to advanced AI applications</t>
+  </si>
+  <si>
+    <t>Gain a deeper understanding of AWS services by building eight real-world projectsKey FeaturesGain practical skills in architecting, deploying, and managing applications on AWS from seasoned expertsGet hands-on experience by building different architectures in an easy-to-follow mannerUnderstand the purpose of different aspects in AWS, and how to make the most of themPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionTired of resumes that get lost in the pile? This book is your roadmap to creating an in-demand AWS portfolio that grabs attention and gets you hired. This comprehensive guide unlocks the vast potential of AWS for developers of all levels. Inside, you'll find invaluable guidance for crafting stunning websites with S3, CloudFront, and Route53. You’ll build robust and scalable applications, such as recipe-sharing platforms, using DynamoDB and Elastic Load Balancing. For streamlined efficiency, the book will teach you how to develop serverless architectures with AWS Lambda and Cognito. Gradually, you’ll infuse your projects with artificial intelligence by creating a photo analyzer powered by Amazon Rekognition. You’ll also automate complex workflows for seamless content translation using Translate, CodePipeline, and CodeBuild. Later, you’ll construct intelligent virtual assistants with Amazon Lex and Bedrock to answer web development queries. The book will also show you how to visualize your data with insightful dashboards built using Athena, Glue, and QuickSight. By the end of this book, you’ll be ready to take your projects to the next level and succeed in the dynamic world of cloud computing.What you will learnDevelop a professional CV website and gain familiarity with the core aspects of AWSBuild a recipe-sharing application using AWS's serverless toolkitLeverage AWS AI services to create a photo friendliness analyzer for professional profilesImplement a CI/CD pipeline to automate content translation across languagesDevelop a web development Q&amp;A chatbot powered by cutting-edge LLMsBuild a business intelligence application to analyze website clickstream data and understand user behavior with AWSWho this book is forIf you’re a student who wants to start your career in cloud computing or a professional with experience in other technical areas like software development who wants to embrace a new professional path or complement your technical skills in cloud computing, this book is for you. A background in computer science or engineering and basic programming skills is recommended. All the projects in the book have theoretical explanations of the services used and do not assume any previous AWS knowledge.</t>
+  </si>
+  <si>
+    <t>9781835889299</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769207</t>
+  </si>
+  <si>
+    <t>10522546</t>
+  </si>
+  <si>
+    <t>Mathieu, Laurent</t>
+  </si>
+  <si>
+    <t>Mastering AWS Security: Strengthen your cloud environment using AWS security features coupled with proven strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore the depths of AWS security and learn how to design, implement, and maintain a secure cloud environment using state-of-the-art AWS technology Key FeaturesDive into AWS security concepts and technologies that can be applied for diverse use casesDesign and deploy secure AWS environments based on modern architectural principlesElevate your AWS security expertise with advanced techniques for automation and continuous improvementPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIf you’re trying to navigate the complex world of AWS security and fortify your organizational cloud environment, then this book is for you. Written by an accomplished cybersecurity and AWS cloud consultant, Mastering AWS Security will help you understand and master the complexities of AWS security. This book offers an in-depth and practical exploration of AWS security concepts, features, and services, focusing on how they apply to modern cloud-based application environments. As you progress, you’ll gain a thorough introduction to the art of security automation and DevSecOps. You’ll learn how to automate security tasks, integrate security into your development process, and maintain a high level of security as your applications evolve and scale. Emphasizing continuous monitoring and improvement, this book will teach you how to set up monitoring systems, interpret security data, and make informed decisions to enhance your security over time. Through real-world case studies, you’ll learn how to tackle the challenges and find solutions for securing AWS environments. By the end of this book, you’ll confidently secure your AWS environments, and stay up to date with the latest security trends and updates in the AWS ecosystem.What you will learnDiscover AWS IAM, access control models, and the principle of least privilegeGet to grips with VPC network security strategies and tools to protect and isolate your critical assetsLeverage and orchestrate AWS security services tailored to your environmentImplement encryption and data protection best practices in key AWS servicesExplore best practices to secure microservices and serverless architectures on AWSImplement security strategies for multi-tenant architecturesMaster the art of security automation and DevSecOps toolingWho this book is forThis comprehensive guide is for cloud architects, engineers, DevOps professionals, and AWS enthusiasts. Cybersecurity professionals who want to learn AWS security to protect their applications, data, and infrastructure from threats, ensure compliance with regulations, and build trust with customers, will also find this book useful. </t>
+  </si>
+  <si>
+    <t>9781805121718</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522546</t>
+  </si>
+  <si>
+    <t>9913355</t>
+  </si>
+  <si>
+    <t>Wang, Yuanbo and Ahsan, Unaiza and Li, Hanyan and Hagen, Matthew</t>
+  </si>
+  <si>
+    <t>A Comprehensive Review of Modern Object Segmentation Approaches</t>
+  </si>
+  <si>
+    <t>Automated visual recognition tasks such as image classification, image captioning, object detection and image segmentation are essential for image and video processing. Of these, image segmentation is the task of associating pixels in an image with their respective object class labels. It has a wide range of applications within many industries, including healthcare, transportation, robotics, fashion, home improvement, and tourism. In this monograph, both traditional and modern object segmentation approaches are investigated, comparing their strengths, weaknesses, and utilities. The main focus is on the deep learning-based techniques for the two most widely solved segmentation tasks: Semantic Segmentation and Instance Segmentation. A wide range of deep learning-based segmentation techniques developed in recent years are examined. Various themes emerge from these techniques that push machines to their limits, and often deviate from human perception principles. In addition, an overview of the widely used benchmark datasets for each of these techniques, along with the respective evaluation metrics to measure the models’ performances, are presented. Potential future research directions conclude the monograph. This monograph serves as a good introduction to the automated visual recognition task of image segmentation and is intended for students and professionals.</t>
+  </si>
+  <si>
+    <t>9781638280712</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9913355</t>
+  </si>
+  <si>
+    <t>10924199</t>
+  </si>
+  <si>
+    <t>Chen, Lvcheng and Deng, Jianing and Zeng, Xudong and Liu, Liangwei and Wu, Yawen and Hu, Jingtong and Sun, Qi and Shi, Zhiguo and Zhuo, Cheng</t>
+  </si>
+  <si>
+    <t>Recent rapid advancements in intelligent vehicular systems and deep learning techniques have led to the emergence of diverse applications utilizing high-quality automotive videos in the Internet-of-Vehicles (IoV), often assisted by unmanned aerial vehicles (UAVs). These applications aim to provide convenience and security for users. However, transmitting automotive videos with high-quality and low-bit-rate poses a challenge due to the inherent lossiness of traditional compression codecs in current UAV-assisted IoV systems, thereby affecting the performance of subsequent tasks. To address this, we propose a spatial-temporal hybrid video compression framework (STHVC), which integrates Space-Time Super-Resolution (STSR) with conventional codecs to enhance the compression efficiency on automotive videos. In our hybrid design, the encoder generates a low-frame-rate and low-resolution version of the source video, which is then compressed using a traditional codec. During the decoding stage, an effective STSR network is developed to increase both the resolution and the frame rate, and mitigate compression artifacts for automotive videos simultaneously. Additionally, we introduce a rectified intermediate flow estimation technique (RecIFE) within the proposed STSR network to address the challenge of noisy and inaccurate motions during the compression pipeline. Extensive experiments on various benchmark datasets demonstrate that our approach achieves bit-rate reductions of 29.97% compared to H.265 (slow) and 31.27% compared to H.266, while also exhibiting superior restoration performance compared to other state-of-the-art learning-based approaches.</t>
+  </si>
+  <si>
+    <t>Video compression;Automotive engineering;Superresolution;Decoding;Autonomous aerial vehicles;Servers;Encoding;Deep learning;Circuits and systems;Video codecs;Video Compression;Internet-of-Vehicles (IoV);Space-time Super-resolution;Deep Learning;Unmanned Aerial Vehicle (UAV)</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3550726</t>
+  </si>
+  <si>
+    <t>STHVC: Spatial-Temporal Hybrid Video Compression for UAV-assisted IoV Systems</t>
+  </si>
+  <si>
+    <t>10266965</t>
+  </si>
+  <si>
+    <t>Jong, Uk Lee and Sang, Jun Sim</t>
+  </si>
+  <si>
+    <t>Cutting-edge Technologies in Biological Sensing and Analysis</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
+    <t>Advanced technologies have been transforming the ways we carry out biological studies as well as deliver healthcare. While micro- and nano-fabrication have provided miniaturized sensors and systems with better sensitivity and selectivity,; innovations in flexible electronics, biomaterials and telecommunications have helped in enabling novel biomedical devices, reducing cost, bringing convenience and establishing mobile-health (m-Health), and personalized- and tele-medicine. Further, the recent rise of the internet of things (IoTs) and machine learning-based approaches has paved the avenue for those biomedical systems to become popular and widely accepted by our society. In this context, we edit this book aiming to cover a broad field of novel technologies used in biological assessment and analysis for humans, animal models and in vitro platforms, in both health monitoring and biological studies. Technical topics discussed in the book include: &amp;#x2022; Biosensing systems and biomedical techniques &amp;#x2022; Imaging techniques and systems &amp;#x2022; Biosignal analysis &amp;#x2022; Animal models used in biological research</t>
+  </si>
+  <si>
+    <t>River Publishers</t>
+  </si>
+  <si>
+    <t>9788770225854</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10266965</t>
+  </si>
+  <si>
+    <t>1 Plasmonic Sensors for Applications in Liquid Biopsies</t>
+  </si>
+  <si>
+    <t>10163087</t>
+  </si>
+  <si>
+    <t>A. Atwan, Tarek</t>
+  </si>
+  <si>
+    <t>Time Series Analysis with Python Cookbook: Practical recipes for exploratory data analysis, data preparation, forecasting, and model evaluation</t>
+  </si>
+  <si>
+    <t>Perform time series analysis and forecasting confidently with this Python code bank and reference manualKey FeaturesExplore forecasting and anomaly detection techniques using statistical, machine learning, and deep learning algorithmsLearn different techniques for evaluating, diagnosing, and optimizing your modelsWork with a variety of complex data with trends, multiple seasonal patterns, and irregularitiesBook DescriptionTime series data is everywhere, available at a high frequency and volume. It is complex and can contain noise, irregularities, and multiple patterns, making it crucial to be well-versed with the techniques covered in this book for data preparation, analysis, and forecasting. This book covers practical techniques for working with time series data, starting with ingesting time series data from various sources and formats, whether in private cloud storage, relational databases, non-relational databases, or specialized time series databases such as InfluxDB. Next, you’ll learn strategies for handling missing data, dealing with time zones and custom business days, and detecting anomalies using intuitive statistical methods, followed by more advanced unsupervised ML models. The book will also explore forecasting using classical statistical models such as Holt-Winters, SARIMA, and VAR. The recipes will present practical techniques for handling non-stationary data, using power transforms, ACF and PACF plots, and decomposing time series data with multiple seasonal patterns. Later, you’ll work with ML and DL models using TensorFlow and PyTorch. Finally, you’ll learn how to evaluate, compare, optimize models, and more using the recipes covered in the book.What you will learnUnderstand what makes time series data different from other dataApply various imputation and interpolation strategies for missing dataImplement different models for univariate and multivariate time seriesUse different deep learning libraries such as TensorFlow, Keras, and PyTorchPlot interactive time series visualizations using hvPlotExplore state-space models and the unobserved components model (UCM)Detect anomalies using statistical and machine learning methodsForecast complex time series with multiple seasonal patternsWho this book is forThis book is for data analysts, business analysts, data scientists, data engineers, or Python developers who want practical Python recipes for time series analysis and forecasting techniques. Fundamental knowledge of Python programming is required. Although having a basic math and statistics background will be beneficial, it is not necessary. Prior experience working with time series data to solve business problems will also help you to better utilize and apply the different recipes in this book.</t>
+  </si>
+  <si>
+    <t>9781801071260</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163087</t>
+  </si>
+  <si>
+    <t>10777443</t>
+  </si>
+  <si>
+    <t>Arriola Ríos, Verónica Esther</t>
+  </si>
+  <si>
+    <t>2024 XXVI Robotics Mexican Congress (COMRob)</t>
+  </si>
+  <si>
+    <t>47-52</t>
+  </si>
+  <si>
+    <t>Research on Embodied Cognition constantly faces two difficulties related to hardware: either robotic platforms are too expensive for the University budget and/or robots were designed for industrial purposes, favoring fine control and reproducibility at the cost of restricted customization for sensor readings and movement control. In order to fully explore new venues for machine learning algorithms linking the pathways from sensation to cognition, back to acting, the physical architecture of the robot must be open and its programming easily altered without putting humans or robots at risk. In the search for a friendly robotic environment for research on cognition, a simple architecture is presented here, with a cost around $10,000 MX or $600 US.</t>
+  </si>
+  <si>
+    <t>Costs;Educational robots;Service robots;Robot sensing systems;Cognition;Teamwork;Robots;Programming profession;Wireless fidelity;Standards;Embodied cognition;Artificial Cognition;Machine Learning;Robot Design;Artificial Intelligence;Cognitive Machines</t>
+  </si>
+  <si>
+    <t>10.1109/COMRob64055.2024.10777443</t>
+  </si>
+  <si>
+    <t>Non Expensive Mobile Robot for Sensor Based Research on Artificial Cognition</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>10769285</t>
+  </si>
+  <si>
+    <t>Barreto, Margarida</t>
+  </si>
+  <si>
+    <t>The Midjourney Expedition: Generate creative images from text prompts and seamlessly integrate them into your workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harness the power of Midjourney to create impactful and memorable artistic outputs and gain a distinctive edge in your professional endeavorsKey FeaturesMaster Midjourney prompting with the help of practical examples from an experienced communication and web design specialistExplore Midjourney's capabilities to create visually stunning art without prior design knowledgeGain practical insights into how to strategically apply AI-generated art in your workPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionLike various other fields, AI offers boundless possibilities when it comes to art. Midjourney is one of the leading AI art creation tools that can assist you in your artistic ideas, regardless of your technical skill level. Written by an accomplished communication and web design specialist, The Midjourney Expedition is your guide to harnessing the power of AI in your creative journey. With this guide, you’ll explore the extensive features of Midjourney and start creating compelling AI-generated art with ease. The first set of chapters will teach you how to set up and use Discord for personalized and seamless art creation, with a dedicated section that will help you understand the different versions of Midjourney and their capabilities. As you progress, you’ll hone your prompt engineering skills, and eventually learn how to leverage the power of complex prompts. You’ll also learn how Midjourney-generated images can be integrated into a multitude of workflows and domains through real-life case studies. In the last set of chapters, you’ll get to grips with real-world applications of Midjourney for storytelling, creating moodboards, and more. By the end of this book, you’ll not only be proficient in using Midjourney, but also understand how to strategically apply AI-generated art in your projects.What you will learnNavigate and master Midjourney's extensive features for AI art creationApply practical techniques to create visually stunning AI-generated artworkAccelerate your creative process to produce captivating visual contentUnderstand and master essential parameters to enhance your creationsCreate consistent characters for storytellingIncorporate AI-generated art into various work contextsWho this book is forThe Midjourney Expedition is for creative individuals who are looking to visually express their ideas through the power of AI. While this book will certainly benefit designers, it's equally valuable for marketing professionals, brand strategists, content creators, media managers, and entrepreneurs. Those responsible for creating compelling visual content to represent a brand, product, or concept will also find this book useful. Basic knowledge of web user interfaces will be helpful, but not required. </t>
+  </si>
+  <si>
+    <t>9781835089187</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769285</t>
+  </si>
+  <si>
+    <t>10803996</t>
+  </si>
+  <si>
+    <t>Dhingra, Aman and Mackay, Mike</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB - The Definitive Guide: Explore enterprise-ready, serverless NoSQL with predictable, scalable performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harness the potential and scalability of DynamoDB to effortlessly construct resilient, low-latency databases Key FeaturesDiscover how DynamoDB works behind the scenes to make the most of its featuresLearn how to keep latency and costs minimal even when scaling upIntegrate DynamoDB with other AWS services to create a full data analytics systemPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThis book will help you master Amazon DynamoDB, the fully managed, serverless, NoSQL database service designed for high performance at any scale. Authored by Aman Dhingra, senior DynamoDB specialist solutions architect at AWS, and Mike Mackay, former senior NoSQL specialist solutions architect at AWS, this guide draws on their expertise to equip you with the knowledge and skills needed to harness DynamoDB's full potential. This book not only introduces you to DynamoDB's core features and real-world applications, but also provides in-depth guidance on transitioning from traditional relational databases to the NoSQL world. You'll learn essential data modeling techniques, such as vertical partitioning, and explore the nuances of DynamoDB's indexing capabilities, capacity modes, and consistency models. The chapters also help you gain a solid understanding of advanced topics such as enhanced analytical patterns, implementing caching with DynamoDB Accelerator (DAX), and integrating DynamoDB with other AWS services to optimize your data strategies. By the end of this book, you’ll be able to design, build, and deliver low-latency, high-throughput DynamoDB solutions, driving new levels of efficiency and performance for your applications.What you will learnMaster key-value data modeling in DynamoDB for efficiencyTransition from RDBMSs to NoSQL with optimized strategiesImplement read consistency and ACID transactions effectivelyExplore vertical partitioning for specific data access patternsOptimize data retrieval using secondary indexes in DynamoDBManage capacity modes, backup strategies, and core componentsEnhance DynamoDB with caching, analytics, and global tablesEvaluate and design your DynamoDB migration strategyWho this book is forThis book is for software architects designing scalable systems, developers optimizing performance with DynamoDB, and engineering managers guiding decision-making. Data engineers will learn to integrate DynamoDB into workflows, while product owners will explore its innovative capabilities. DBAs transitioning to NoSQL will find valuable insights on DynamoDB and RDBMS integration. Basic knowledge of software engineering, Python, and cloud computing is helpful. Hands-on AWS or DynamoDB experience is beneficial but not required. </t>
+  </si>
+  <si>
+    <t>9781803248325</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10803996</t>
+  </si>
+  <si>
+    <t>10929011</t>
+  </si>
+  <si>
+    <t>Cui, Xiao and Ye, Weicai and Wang, Yifan and Zhang, Guofeng and Zhou, Wengang and He, Tong and Li, Houqiang</t>
+  </si>
+  <si>
+    <t>Reconstructing urban street scenes is crucial due to its vital role in applications such as autonomous driving and urban planning. These scenes are characterized by long, narrow camera trajectories, occlusion, complex object relationships, and sparse data across multiple scales. Despite recent advancements, existing surface reconstruction methods, which are primarily designed for object-centric scenarios, struggle to adapt effectively to the unique characteristics of street scenes. To address this challenge, we introduce StreetSurfGS, the first method to employ Gaussian Splatting specifically tailored for scalable urban street scene surface reconstruction. StreetSurfGS utilizes a planar-based octree representation and segmented training to reduce memory costs, accommodate unique camera characteristics, and improve scalability. Additionally, to mitigate depth inaccuracies caused by object overlap, we propose a guided smoothing strategy within regularization to eliminate inaccurate boundary points and outliers. Furthermore, to address sparse views and multi-scale challenges, we use a dual-step matching strategy that leverages adjacent and long-term information. Extensive experiments validate the efficacy of StreetSurfGS in both novel view synthesis and surface reconstruction.</t>
+  </si>
+  <si>
+    <t>Surface reconstruction;Image reconstruction;Three-dimensional displays;Cameras;Training;Rendering (computer graphics);Scalability;Octrees;Neural radiance field;Circuits and systems;Surface Reconstruction;Gaussian Splatting;Urban Street Reconstruction</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3551719</t>
+  </si>
+  <si>
+    <t>StreetSurfGS: Scalable Urban Street Surface Reconstruction with Planar-based Gaussian Splatting</t>
+  </si>
+  <si>
+    <t>9919109</t>
+  </si>
+  <si>
+    <t>Otani, Mayu and Song, Yale and Wang, Yang</t>
+  </si>
+  <si>
+    <t>Video Summarization Overview</t>
+  </si>
+  <si>
+    <t>The widespread use of the internet and affordable video capturing devices has dramatically changed the landscape of video creation and consumption. In particular, user-created videos are more prevalent than ever with the evolution of video streaming services and social networks. The rapid growth of video creation necessitates advanced technologies that enable efficient consumption of desired video content. The scenarios include enhancing user experience for viewers on video streaming services, enabling quick video browsing for video creators who need to go through a massive amount of video rushes, and for security teams who need to monitor surveillance videos. With the broad growth of video capturing devices and applications on the web, it is more demanding to provide desired video content for users efficiently. Video summarization facilitates quickly grasping video content by creating a compact summary of videos. Much effort has been devoted to automatic video summarization, and various problem settings and approaches have been proposed. This monograph provides an overview of this field, and covers early studies as well as recent approaches which take advantage of deep learning techniques. Video summarization approaches and their underlying concepts are described, and benchmarks and evaluations are included. Evaluation techniques in prior work in this field are addressed, and the pros and cons of the evaluation protocols are detailed. The monograph concludes with current and open challenges in this field. This monograph is a useful reference for students and professionals who are active in, or wish to enter into the field of Video Summarization.</t>
+  </si>
+  <si>
+    <t>9781638280798</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9919109</t>
+  </si>
+  <si>
+    <t>10522587</t>
+  </si>
+  <si>
+    <t>Li, Chunyuan and Gan, Zhe and Yang, Zhengyuan and Yang, Jianwei and Li, Linjie and Wang, Lijuan and Gao, Jianfeng</t>
+  </si>
+  <si>
+    <t>Multimodal Foundation Models: From Specialists to General-Purpose Assistants</t>
+  </si>
+  <si>
+    <t>This monograph presents a comprehensive survey of the taxonomy and evolution of multimodal foundation models that demonstrate vision and vision-language capabilities, focusing on the transition from specialist models to general-purpose assistants. The focus encompasses five core topics, categorized into two classes; (i) a survey of well-established research areas: multimodal foundation models pre-trained for specific purposes, including two topics – methods of learning vision backbones for visual understanding and text-to-image generation; (ii) recent advances in exploratory, open research areas: multimodal foundation models that aim to play the role of general-purpose assistants, including three topics – unified vision models inspired by large language models (LLMs), end-to-end training of multimodal LLMs, and chaining multimodal tools with LLMs. The target audience of the monograph is researchers, graduate students, and professionals in computer vision and vision-language multimodal communities who are eager to learn the basics and recent advances in multimodal foundation models.</t>
+  </si>
+  <si>
+    <t>9781638283379</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522587</t>
+  </si>
+  <si>
+    <t>10163089</t>
+  </si>
+  <si>
+    <t>Joseph, Manu</t>
+  </si>
+  <si>
+    <t>Modern Time Series Forecasting with Python: Explore industry-ready time series forecasting using modern machine learning and deep learning</t>
+  </si>
+  <si>
+    <t>Build real-world time series forecasting systems which scale to millions of time series by applying modern machine learning and deep learning conceptsKey FeaturesExplore industry-tested machine learning techniques used to forecast millions of time seriesGet started with the revolutionary paradigm of global forecasting modelsGet to grips with new concepts by applying them to real-world datasets of energy forecastingBook DescriptionWe live in a serendipitous era where the explosion in the quantum of data collected and a renewed interest in data-driven techniques such as machine learning (ML), has changed the landscape of analytics, and with it, time series forecasting. This book, filled with industry-tested tips and tricks, takes you beyond commonly used classical statistical methods such as ARIMA and introduces to you the latest techniques from the world of ML. This is a comprehensive guide to analyzing, visualizing, and creating state-of-the-art forecasting systems, complete with common topics such as ML and deep learning (DL) as well as rarely touched-upon topics such as global forecasting models, cross-validation strategies, and forecast metrics. You’ll begin by exploring the basics of data handling, data visualization, and classical statistical methods before moving on to ML and DL models for time series forecasting. This book takes you on a hands-on journey in which you’ll develop state-of-the-art ML (linear regression to gradient-boosted trees) and DL (feed-forward neural networks, LSTMs, and transformers) models on a real-world dataset along with exploring practical topics such as interpretability. By the end of this book, you’ll be able to build world-class time series forecasting systems and tackle problems in the real world.What you will learnFind out how to manipulate and visualize time series data like a proSet strong baselines with popular models such as ARIMADiscover how time series forecasting can be cast as regressionEngineer features for machine learning models for forecastingExplore the exciting world of ensembling and stacking modelsGet to grips with the global forecasting paradigmUnderstand and apply state-of-the-art DL models such as N-BEATS and AutoformerExplore multi-step forecasting and cross-validation strategiesWho this book is forThe book is for data scientists, data analysts, machine learning engineers, and Python developers who want to build industry-ready time series models. Since the book explains most concepts from the ground up, basic proficiency in Python is all you need. Prior understanding of machine learning or forecasting will help speed up your learning. For experienced machine learning and forecasting practitioners, this book has a lot to offer in terms of advanced techniques and traversing the latest research frontiers in time series forecasting.</t>
+  </si>
+  <si>
+    <t>9781803232041</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163089</t>
+  </si>
+  <si>
+    <t>9584021</t>
+  </si>
+  <si>
+    <t>Chen, Yuxin and Chi, Yuejie and Fan, Jianqing and Ma, Cong</t>
+  </si>
+  <si>
+    <t>Spectral Methods for Data Science: A Statistical Perspective</t>
+  </si>
+  <si>
+    <t>In contemporary science and engineering applications, the volume of available data is growing at an enormous rate. Spectral methods have emerged as a simple yet surprisingly effective approach for extracting information from massive, noisy and incomplete data. A diverse array of applications have been found in machine learning, imaging science, financial and econometric modeling, and signal processing. This monograph presents a systematic, yet accessible introduction to spectral methods from a modern statistical perspective, highlighting their algorithmic implications in diverse large-scale applications. The authors provide a unified and comprehensive treatment that establishes the theoretical underpinnings for spectral methods, particularly through a statistical lens. Building on years of research experience in the field, the authors present a powerful framework, called leave-one-out analysis, that proves effective and versatile for delivering fine-grained performance guarantees for a variety of problems. This book is essential reading for all students, researchers and practitioners working in Data Science.</t>
+  </si>
+  <si>
+    <t>9781680838978</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9584021</t>
+  </si>
+  <si>
+    <t>10162683</t>
+  </si>
+  <si>
+    <t>Mulder, Jeroen and Mulder, Henry</t>
+  </si>
+  <si>
+    <t>Transforming Healthcare with DevOps: A practical DevOps4Care guide to embracing the complexity of digital transformation</t>
+  </si>
+  <si>
+    <t>Leverage modern technologies and agile methodologies such as DevOps and microenterprises to deliver sustainable healthcare solutions. Purchase of the print or kindle book includes a free eBook in the PDF format. Key FeaturesBook DescriptionHealthcare today faces a multitude of challenges, which can be summed up as the barriers architects and consultants face in transforming the healthcare system into a more sustainable one. This book helps you to guide that transformation step by step. You’ll begin by understanding the need for this transformation, exploring related challenges, the possibilities of technology, and how human factors can be involved in digital transformation. The book will enable you to overcome inhibitions and plan various transformation steps using the Transformation into Sustainable Healthcare (TiSH) model and DevOps4Care. Next, you’ll use the observe, orient, decide, and act (OODA) loop as an iterative approach to address all stakeholders and adapt swiftly when situations change. Further, you’ll be able to build shared platforms that enable interaction between various stakeholders, including the technology-enabled care service teams. The final chapters will help you execute the transformation to sustainable healthcare using the knowledge you’ve gained while getting familiar with common pitfalls and learning how to avoid or mitigate them. By the end of this DevOps book, you will have an overview of the challenges, opportunities, and directions of solutions and be on your way toward starting the transformation into sustainable healthcare.What you will learnUnderstand the need for transformation of healthcareAccelerate transformation using the TiSH modelGet to grips with stepped, networked, and integrated careApply DevOps methodologies for healthcare in DevOps4CareFind out how to handle complexities through the system of systems thinkingBundle and unbundle organizations for the delivery of true patient-centric healthcareWho this book is forThis book is written specifically for enterprise architects and management consultants dealing with transformation in healthcare. Professionals dealing with digital transformation of healthcare, including C-level executives such as chief medical information officers (CMIOs), CEOs, CIOs, and CFOs will also find this book interesting. Basic knowledge of IT systems and architecture will help you grasp the concepts easily.</t>
+  </si>
+  <si>
+    <t>9781801812467</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162683</t>
+  </si>
+  <si>
+    <t>10540166</t>
+  </si>
+  <si>
+    <t>Boyraz, Guven</t>
+  </si>
+  <si>
+    <t>Endpoint Detection and Response Essentials: Explore the landscape of hacking, defense, and deployment in EDR</t>
+  </si>
+  <si>
+    <t>Elevate your expertise in endpoint detection and response by mastering advanced EDR/XDR concepts through real-life examples and fortify your organization's cyber defense strategyKey FeaturesLearn how to tackle endpoint security problems in your organizationApply practical guidance and real-world examples to harden endpoint securityImplement EDR/XDR tools for optimal protection of digital assetsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn this data-driven age, safeguarding sensitive data and privacy has become paramount, demanding a deep understanding of the intricacies of cyberspace and its associated threats. With a focus on endpoint defense, Endpoint Detection and Response Essentials guides you in implementing EDR solutions to stay ahead of attackers and ensure the overall security posture of your IT infrastructure. Starting with an insightful introduction to EDR and its significance in the modern cyber threat landscape, this book offers a quick overview of popular EDR tools followed by their practical implementation. From real-world case studies, best practices, and deployment strategies to maximizing the effectiveness of EDR, including endpoint hardening techniques and advanced DNS visibility methods, this comprehensive resource equips you with the knowledge and hands-on skills to strengthen your organization’s defense against cyber attacks. Recognizing the role of the DNS protocol, you’ll fortify your organization's endpoint defense proactively. By the end of this book, you'll have honed the skills needed to construct a resilient cybersecurity defense for yourself and your organization.What you will learnGain insight into current cybersecurity threats targeting endpointsUnderstand why antivirus solutions are no longer sufficient for robust securityExplore popular EDR/XDR tools and their implementationMaster the integration of EDR tools into your security operationsUncover evasion techniques employed by hackers in the EDR/XDR contextGet hands-on experience utilizing DNS logs for endpoint defenseApply effective endpoint hardening techniques within your organizationWho this book is forIf you're an IT professional seeking to safeguard yourself and your company's digital assets, this book is for you. To make the most of its content, a foundational understanding of GNU/Linux, operating systems, networks, and programming concepts is recommended. Additionally, security professionals eager to delve into advanced endpoint defense techniques will find this book invaluable.</t>
+  </si>
+  <si>
+    <t>9781835465769</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10540166</t>
+  </si>
+  <si>
+    <t>10162611</t>
+  </si>
+  <si>
+    <t>Ciaburro, Giuseppe</t>
+  </si>
+  <si>
+    <t>Hands-On Simulation Modeling with Python: Develop simulation models for improved efficiency and precision in the decision-making process</t>
+  </si>
+  <si>
+    <t>Learn to construct state-of-the-art simulation models with Python and enhance your simulation modelling skills, as well as create and analyze digital prototypes of physical models with easeKey FeaturesUnderstand various statistical and physical simulations to improve systems using PythonLearn to create the numerical prototype of a real model using hands-on examplesEvaluate performance and output results based on how the prototype would work in the real worldBook DescriptionSimulation modelling is an exploration method that aims to imitate physical systems in a virtual environment and retrieve useful statistical inferences from it. The ability to analyze the model as it runs sets simulation modelling apart from other methods used in conventional analyses. This book is your comprehensive and hands-on guide to understanding various computational statistical simulations using Python. The book begins by helping you get familiarized with the fundamental concepts of simulation modelling, that’ll enable you to understand the various methods and techniques needed to explore complex topics. Data scientists working with simulation models will be able to put their knowledge to work with this practical guide. As you advance, you’ll dive deep into numerical simulation algorithms, including an overview of relevant applications, with the help of real-world use cases and practical examples. You'll also find out how to use Python to develop simulation models and how to use several Python packages. Finally, you’ll get to grips with various numerical simulation algorithms and concepts, such as Markov Decision Processes, Monte Carlo methods, and bootstrapping techniques. By the end of this book, you'll have learned how to construct and deploy simulation models of your own to overcome real-world challenges.What you will learnGet to grips with the concept of randomness and the data generation processDelve into resampling methodsDiscover how to work with Monte Carlo simulationsUtilize simulations to improve or optimize systemsFind out how to run efficient simulations to analyze real-world systemsUnderstand how to simulate random walks using Markov chainsWho this book is forThis book is for data scientists, simulation engineers, and anyone who is already familiar with the basic computational methods and wants to implement various simulation techniques such as Monte-Carlo methods and statistical simulation using Python.</t>
+  </si>
+  <si>
+    <t>9781804614464</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162611</t>
+  </si>
+  <si>
+    <t>10522554</t>
+  </si>
+  <si>
+    <t>Masson-Forsythe, Margaux</t>
+  </si>
+  <si>
+    <t>Active Machine Learning with Python: Refine and elevate data quality over quantity with active learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use active machine learning with Python to improve the accuracy of predictive models, streamline the data analysis process, and adapt to evolving data trends, fostering innovation and progress across diverse fieldsKey FeaturesLearn how to implement a pipeline for optimal model creation from large datasets and at lower costsGain profound insights within your data while achieving greater efficiency and speedApply your knowledge to real-world use cases and solve complex ML problemsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionBuilding accurate machine learning models requires quality data—lots of it. However, for most teams, assembling massive datasets is time-consuming, expensive, or downright impossible. Led by Margaux Masson-Forsythe, a seasoned ML engineer and advocate for surgical data science and climate AI advancements, this hands-on guide to active machine learning demonstrates how to train robust models with just a fraction of the data using Python's powerful active learning tools. You’ll master the fundamental techniques of active learning, such as membership query synthesis, stream-based sampling, and pool-based sampling and gain insights for designing and implementing active learning algorithms with query strategy and Human-in-the-Loop frameworks. Exploring various active machine learning techniques, you’ll learn how to enhance the performance of computer vision models like image classification, object detection, and semantic segmentation and delve into a machine AL method for selecting the most informative frames for labeling large videos, addressing duplicated data. You’ll also assess the effectiveness and efficiency of active machine learning systems through performance evaluation. By the end of the book, you’ll be able to enhance your active learning projects by leveraging Python libraries, frameworks, and commonly used tools.What you will learnMaster the fundamentals of active machine learningUnderstand query strategies for optimal model training with minimal dataTackle class imbalance, concept drift, and other data challengesEvaluate and analyze active learning model performanceIntegrate active learning libraries into workflows effectivelyOptimize workflows for human labelersExplore the finest active learning tools available todayWho this book is forIdeal for data scientists and ML engineers aiming to maximize model performance while minimizing costly data labeling, this book is your guide to optimizing ML workflows and prioritizing quality over quantity. Whether you’re a technical practitioner or team lead, you’ll benefit from the proven methods presented in this book to slash data requirements and iterate faster. Basic Python proficiency and familiarity with machine learning concepts such as datasets and convolutional neural networks is all you need to get started. </t>
+  </si>
+  <si>
+    <t>9781835462683</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522554</t>
+  </si>
+  <si>
+    <t>10816431</t>
+  </si>
+  <si>
+    <t>Zhang, Wen and Tan, Zhenshan and Zhang, Li and Li, Zhijiang</t>
+  </si>
+  <si>
+    <t>Current multi-illumination color constancy methods typically estimate illumination for each pixel directly. However, according to the multi-illumination imaging equation, the color of each pixel is determined by various components, including the innate color of the scene content, the colors of multiple illuminations, and the weightings of these illuminations. Failing to distinguish between these components results in color coupling. On the one hand, there is color coupling between illumination and scene content, where estimations are easily misled by the colors of the content, and the distribution of the estimated illuminations is relatively scattered. On the other hand, there is color coupling between illuminations, where estimations are susceptible to interference from high-frequency and heterogeneous illumination colors, and the local contrast is low. To address color coupling, we propose a Color Decoupling Network (CDNet) that includes a Content Color Awareness Module (CCAM) and a Contrast HArmonization Module (CHAM). CCAM learns scene content color priors, decoupling the colors of content and illuminations by providing the model with the color features of the content, thereby reducing out-of-gamut estimations and enhancing consistency. CHAM constrains feature representation, decoupling illuminants by mutual calibration between adjacent features. CHAM utilizes spatial correlation to make the model more sensitive to the relationships between neighboring features and utilizes illumination disparity degree to guide feature classification. By enhancing the uniqueness of homogeneous illumination features and the distinctiveness of heterogeneous illumination features, CHAM improves local edge contrast. Additionally, by allocating fine-grained margin coefficients to emphasize the soft distinctiveness of similar illumination features, further enhancing local contrast. Extensive experiments on single- and multi-illumination benchmark datasets demonstrate that the proposed method achieves superior performance.</t>
+  </si>
+  <si>
+    <t>Lighting;Image color analysis;Estimation;Couplings;Feature extraction;Histograms;Hands;Calibration;Visualization;Semantics;Multi-illumination color constancy;illumination map estimation;color decoupling;feature calibration;semantic</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2024.3523019</t>
+  </si>
+  <si>
+    <t>Color Decoupling for Multi-Illumination Color Constancy</t>
+  </si>
+  <si>
+    <t>10460762</t>
+  </si>
+  <si>
+    <t>Bradley, Gary</t>
+  </si>
+  <si>
+    <t>Mastering Adobe Photoshop 2024: Discover the smart way to polish your digital imagery skills by editing professional looking photos</t>
+  </si>
+  <si>
+    <t>Unleash your digital creativity by mastering complex editing tools and features to work smarter and faster for high-end resultsKey FeaturesCreate, manage, and deliver captivating visuals for print, screen, and the web using proven industry techniquesManage your digital projects with granular control and confidenceBecome an expert and eliminate last-minute Google searches to overcome challengesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionUnlock the full potential of Photoshop, the go-to app for content creators by mastering its complex tools and features. This book quickly builds on your existing Photoshop knowledge with proven industry techniques, serving as a launchpad to develop professional skills and transformative personal growth. You’ll start by fine-tuning color and tone in your images with non-destructive adjustment layers and conceal content like backdrops with precise masking techniques for fine details like hair. Working through a series of real-world editing projects, crafting realistic brand mockups and traditional marketing collateral, you’ll learn robust methods for building social media assets in Photoshop, from images to animated GIFs and videos. You’ll also be able to bring your typography to life with styles and effects that are simple to edit and store as preset effects. The final section of the book encapsulates all of your learning to create complex montages using advanced masking and compositing techniques. You’ll have fun elevating your designs with surreal art styles and conceptual imagery using retouching, blending, and liquify filters. By the end of this Adobe Photoshop book, you’ll soar to new heights with your designs, creating captivating visuals that leave a lasting impression on your audience.What you will learnDiscover new ways of working with familiar tools, enhancing your existing knowledge of PhotoshopMaster time-saving retouching techniques, ensuring flexibility for repeated edits without compromising on qualityCreate precise image cut-outs and seamless montages with advanced masking toolsMake Photoshop your go-to application for social media contentAutomate repetitive tasks with actions and scripts that batch-process hundreds of images in secondsIntegrate vector assets, type styles, and brand colors from other CC applicationsWho this book is forThis book is for designers, marketers, and online content creators who work with digital imagery regularly. If you use Photoshop to create projects for print, screen, or social, this book will help you take your skills to the next level.</t>
+  </si>
+  <si>
+    <t>9781838821456</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460762</t>
+  </si>
+  <si>
+    <t>10159558</t>
+  </si>
+  <si>
+    <t>Chaudhuri, Arjun and Chen, Ching-Yuan and Chakrabarty, Krishnendu</t>
+  </si>
+  <si>
+    <t>Recent Advances in Testing Techniques for AI Hardware Accelerators</t>
+  </si>
+  <si>
+    <t>The rapid growth in big data from mobile, Internet of things (IoT), and edge devices, and the continued demand for higher computing power, have established deep learning as the cornerstone of most artificial intelligence (AI) applications today. Recent years have seen a push towards deep learning implemented on domain-specific AI accelerators that support custom memory hierarchies, variable precision, and optimized matrix multiplication. Commercial AI accelerators have shown superior energy and footprint efficiency compared to GPUs for a variety of inference tasks. In this monograph, roadblocks that need to be understood and analyzed to ensure functional robustness in emerging AI accelerators are discussed. State-of-the-art practices adopted for structural and functional testing of the accelerators are presented, as well as methodologies for assessing the functional criticality of hardware faults in AI accelerators for reducing the test time by targeting the functionally critical faults. This monograph highlights recent research on efforts to improve test and reliability of neuromorphic computing systems built using non-volatile memory (NVM) devices like spin-transfer-torque (STT-MRAM) and resistive RAM (ReRAM) devices. Also are the robustness of silicon-photonic neural networks and the reliability concerns with manufacturing defects and process variations in monolithic 3D (M3D) based near-memory computing systems.</t>
+  </si>
+  <si>
+    <t>9781638282419</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10159558</t>
+  </si>
+  <si>
+    <t>10769289</t>
+  </si>
+  <si>
+    <t>Liu, Yuxi (Hayden)</t>
+  </si>
+  <si>
+    <t>Python Machine Learning By Example: Unlock machine learning best practices with real-world use cases</t>
+  </si>
+  <si>
+    <t>Author Yuxi (Hayden) Liu teaches machine learning from the fundamentals to building NLP transformers and multimodal models with best practice tips and real-world examples using PyTorch, TensorFlow, scikit-learn, and pandasKey FeaturesDiscover new and updated content on NLP transformers, PyTorch, and computer vision modelingIncludes a dedicated chapter on best practices and additional best practice tips throughout the book to improve your ML solutionsImplement ML models, such as neural networks and linear and logistic regression, from scratchPurchase of the print or Kindle book includes a free PDF copyBook DescriptionThe fourth edition of Python Machine Learning By Example is a comprehensive guide for beginners and experienced machine learning practitioners who want to learn more advanced techniques, such as multimodal modeling. Written by experienced machine learning author and ex-Google machine learning engineer Yuxi (Hayden) Liu, this edition emphasizes best practices, providing invaluable insights for machine learning engineers, data scientists, and analysts. Explore advanced techniques, including two new chapters on natural language processing transformers with BERT and GPT, and multimodal computer vision models with PyTorch and Hugging Face. You’ll learn key modeling techniques using practical examples, such as predicting stock prices and creating an image search engine. This hands-on machine learning book navigates through complex challenges, bridging the gap between theoretical understanding and practical application. Elevate your machine learning and deep learning expertise, tackle intricate problems, and unlock the potential of advanced techniques in machine learning with this authoritative guide.What you will learnFollow machine learning best practices throughout data preparation and model developmentBuild and improve image classifiers using convolutional neural networks (CNNs) and transfer learningDevelop and fine-tune neural networks using TensorFlow and PyTorchAnalyze sequence data and make predictions using recurrent neural networks (RNNs), transformers, and CLIPBuild classifiers using support vector machines (SVMs) and boost performance with PCAAvoid overfitting using regularization, feature selection, and moreWho this book is forThis expanded fourth edition is ideal for data scientists, ML engineers, analysts, and students with Python programming knowledge. The real-world examples, best practices, and code prepare anyone undertaking their first serious ML project.</t>
+  </si>
+  <si>
+    <t>9781835082225</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769289</t>
+  </si>
+  <si>
+    <t>9453428</t>
+  </si>
+  <si>
+    <t>Heller, Eric J.</t>
+  </si>
+  <si>
+    <t>The Semiclassical Way to Dynamics and Spectroscopy</t>
+  </si>
+  <si>
+    <t>A graduate-level text that examines the semiclassical approach to quantum mechanicsPhysical systems have been traditionally described in terms of either classical or quantum mechanics. But in recent years, semiclassical methods have developed rapidly, providing deep physical insight and computational tools for quantum dynamics and spectroscopy. In this book, Eric Heller introduces and develops this subject, demonstrating its power with many examples.  In the first half of the book, Heller covers relevant aspects of classical mechanics, building from them the semiclassical way through the semiclassical limit of the Feynman path integral. The second half of the book applies this approach to various kinds of spectroscopy, such as molecular spectroscopy and electron imaging and quantum dynamical systems with an emphasis on tunneling. Adopting a distinctly time-dependent viewpoint, Heller argues for semiclassical theories from experimental and theoretical vantage points valuable to research in physics and chemistry. Featuring more than two hundred figures, the book provides a geometric, phase-space, and coordinate-space pathway to greater understanding.Filled with practical examples and applications, The Semiclassical Way to Dynamics and Spectroscopy is a comprehensive presentation of the tools necessary to successfully delve into this unique area of quantum mechanics.A comprehensive approach for using classical mechanics to do quantum mechanicsMore than two hundred figures to assist intuitionEmphasis on semiclassical Green function and wave packet perspective, as well as tunneling and spectroscopyChapters include quantum mechanics of classically chaotic systems, quantum scarring, and other modern dynamical topics</t>
+  </si>
+  <si>
+    <t>Princeton University Press</t>
+  </si>
+  <si>
+    <t>9781400890293</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9453428</t>
+  </si>
+  <si>
+    <t>9483802</t>
+  </si>
+  <si>
+    <t>Weikum, Gerhard and Dong, Xin Luna and Razniewski, Simon and Suchanek, Fabian</t>
+  </si>
+  <si>
+    <t>Machine Knowledge Subtitle: Creation and Curation of Comprehensive Knowledge Bases</t>
+  </si>
+  <si>
+    <t>Equipping machines with comprehensive knowledge of the world’s entities and their relationships has been a longstanding goal of AI. Over the last decade, large-scale knowledge bases, also known as knowledge graphs, have been automatically constructed from web contents and text sources, and have become a key asset for search engines. This machine knowledge can be harnessed to semantically interpret textual phrases in news, social media and web tables, and contributes to question answering, natural language processing and data analytics. This monograph surveys fundamental concepts and practical methods for creating and curating large knowledge bases. It covers models and methods for discovering and curating large knowledge bases from online content, with emphasis on semi-structured web pages with lists, tables etc., and unstructured text sources. Case studies on academic projects and industrial knowledge graphs complement the survey of concepts and methods. The intended audience is students and researchers interested in a wide spectrum of topics: from machine knowledge and data quality to machine learning and data science as well as applications in web content mining and natural language understanding. It will also be of interest to industrial practitioners working on semantic technologies for web, social media, or enterprise content.</t>
+  </si>
+  <si>
+    <t>9781680838374</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9483802</t>
+  </si>
+  <si>
+    <t>10744415</t>
+  </si>
+  <si>
+    <t>Bai, Yang and Xing, Gaojie and Wu, Hongyan and Rao, Zhihong and Ma, Chuan and Wang, Shiping and Liu, Xiaolei and Zhou, Yimin and Tang, Jiajia and Huang, Kaijun and Kang, Jiale</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>404-434</t>
+  </si>
+  <si>
+    <t>Deep learning, as an important branch of machine learning, has been widely applied in computer vision, natural language processing, speech recognition, and more. However, recent studies have revealed that deep learning systems are vulnerable to backdoor attacks. Backdoor attackers inject a hidden backdoor into the deep learning model, such that the predictions of the infected model will be maliciously changed if the hidden backdoor is activated by input with a backdoor trigger while behaving normally on any benign sample. This kind of attack can potentially result in severe consequences in the real world. Therefore, research on defending against backdoor attacks has emerged rapidly. In this article, we have provided a comprehensive survey of backdoor attacks, detections, and defenses previously demonstrated on deep learning. We have investigated widely used model architectures, benchmark datasets, and metrics in backdoor research and have classified attacks, detections and defenses based on different criteria. Furthermore, we have analyzed some limitations in existing methods and, based on this, pointed out several promising future research directions. Through this survey, beginners can gain a preliminary understanding of backdoor attacks and defenses. Furthermore, we anticipate that this work will provide new perspectives and inspire extra research into the backdoor attack and defense methods in deep learning.</t>
+  </si>
+  <si>
+    <t>Deep learning;Taxonomy;Transfer learning;Training;Reviews;Predictive models;Federated learning;Data models;Benchmark testing;Surveys;Backdoor attacks;backdoor defenses;backdoor detections;deep learning</t>
+  </si>
+  <si>
+    <t>10.1109/TCSS.2024.3482723</t>
+  </si>
+  <si>
+    <t>2329-924X</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computational Social Systems</t>
+  </si>
+  <si>
+    <t>Backdoor Attack and Defense on Deep Learning: A Survey</t>
+  </si>
+  <si>
+    <t>9321568</t>
+  </si>
+  <si>
+    <t>Soldatos, John</t>
+  </si>
+  <si>
+    <t>A 360-Degree View of IoT Technologies</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>This exciting book explores the past, present and future of IoT, presenting the most prominent technologies that comprise IoT applications, including cloud computing, edge computing, embedded computing, Big Data, Artificial Intelligence (AI), blockchain and cybersecurity. A comprehensive description of the full range of the building blocks that comprise emerging IoT systems and applications is provided, while illustrating the evolution of IoT systems from the legacy small scale sensor systems and wireless sensor networks, to today’s large scale IoT deployments that comprise millions of connected devices in the cloud and smart objects with (semi)autonomous behavior. It also provides an outlook for the future evolution of IoT systems, based on their blending with AI and the use of emerging technologies like blockchain for massively decentralized applications. The full spectrum of technologies that are closely associated with the term IoT since its introduction are explored. The book also highlights the main challenges that are associated with the development and deployment of IoT applications at scale, including network connectivity, security, and interoperability challenges. First tech sensors, wireless sensor networks and radio-frequency identification (RFID) tags are covered. Machine learning, big data and security issues are also explored.</t>
+  </si>
+  <si>
+    <t>Artech</t>
+  </si>
+  <si>
+    <t>9781630817534</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9321568</t>
+  </si>
+  <si>
+    <t>10522556</t>
+  </si>
+  <si>
+    <t>Chapman, Eric</t>
+  </si>
+  <si>
+    <t>Mastering GitHub Actions: Advance your automation skills with the latest techniques for software integration and deployment</t>
+  </si>
+  <si>
+    <t>Explore the full spectrum of GitHub Actions to unlock your team's potential and become a pro in no timeKey FeaturesMaster GitHub events to foster a self-service mindsetElevate your GitHub Actions knowledge to a whole new level through real-world examplesLearn how to integrate with popular cloud-based products within your workflowsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionNavigating GitHub Actions often leaves developers grappling with inefficiencies and collaboration bottlenecks. Mastering GitHub Actions offers solutions to these challenges, ensuring smoother software development. With 16 extensive chapters, this book simplifies GitHub Actions, walking you through its vast capabilities, from team and enterprise features to organization defaults, self-hosted runners, and monitoring tools. You’ll learn how to craft reusable workflows, design bespoke templates, publish actions, incorporate external services, and introduce enhanced security measures. Through hands-on examples, you’ll gain best-practice insights for team-based GitHub Actions workflows and discover strategies for maximizing organization accounts. Whether you’re a software engineer or a DevOps guru, by the end of this book, you'll be adept at amplifying productivity and leveraging automation's might to refine your development process.What you will learnExplore GitHub Actions' features for team and business settingsCreate reusable workflows, templates, and standardized processes to reduce overheadGet to grips with CI/CD integrations, code quality tools, and communicationUnderstand self-hosted runners for greater control of resources and settingsDiscover tools to optimize GitHub Actions and manage resources efficientlyWork through examples to enhance projects, teamwork, and productivityWho this book is forThis book is for developers with a foundation in CI/CD, code quality tools, and team communication keen on exploring GitHub Actions. It’s ideal for DevOps engineers, system administrators, software developers, IT specialists, automation aficionados, and university students focused on software integration and deployment. Those familiar with GitHub's ecosystem will find this content insightful.</t>
+  </si>
+  <si>
+    <t>9781805123309</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522556</t>
+  </si>
+  <si>
+    <t>8384208</t>
+  </si>
+  <si>
+    <t>Chen, George H. and Shah, Devavrat</t>
+  </si>
+  <si>
+    <t>Explaining the Success of Nearest Neighbor Methods in Prediction</t>
+  </si>
+  <si>
+    <t>Many modern methods for prediction leverage nearest neighbor search to find past training examples most similar to a test example, an idea that dates back in text to at least the 11th century and has stood the test of time. This monograph explains the success of these methods, both in theory, covering foundational nonasymptotic statistical guarantees on nearest-neighbor-based regression and classification, and in practice, gathering prominent methods for approximate nearest neighbor search that have been essential to scaling prediction systems reliant on nearest neighbor analysis to handle massive datasets. Furthermore, it looks at connections to learning distances for use with nearest neighbor methods, including how random decision trees and ensemble methods learn nearest neighbor structure, as well as recent developments in crowdsourcing and graphons.</t>
+  </si>
+  <si>
+    <t>Nonparametric methods;Statistical learning theory;Classification and prediction</t>
+  </si>
+  <si>
+    <t>10.1561/2200000064</t>
+  </si>
+  <si>
+    <t>9781680834550</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8384208</t>
+  </si>
+  <si>
+    <t>10522560</t>
+  </si>
+  <si>
+    <t>Wijaya, Adi and Vilares, António</t>
+  </si>
+  <si>
+    <t>Data Engineering with Google Cloud Platform: A guide to leveling up as a data engineer by building a scalable data platform with Google Cloud</t>
+  </si>
+  <si>
+    <t>Become a successful data engineer by building and deploying your own data pipelines on Google Cloud, including making key architectural decisionsKey FeaturesGet up to speed with data governance on Google CloudLearn how to use various Google Cloud products like Dataform, DLP, Dataplex, Dataproc Serverless, and DatastreamBoost your confidence by getting Google Cloud data engineering certification guidance from real exam experiencesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThe second edition of Data Engineering with Google Cloud builds upon the success of the first edition by offering enhanced clarity and depth to data professionals navigating the intricate landscape of data engineering. Beyond its foundational lessons, this new edition delves into the essential realm of data governance within Google Cloud, providing you invaluable insights into managing and optimizing data resources effectively. Furthermore, this book helps you stay ahead of the curve by guiding you through the latest technological advancements in the Google Cloud ecosystem. You’ll cover essential aspects, from exploring Cloud Composer 2 to the evolution of Airflow 2.5. Additionally, you’ll explore how to work with cutting-edge tools like Dataform, DLP, Dataplex, Dataproc Serverless, and Datastream to perform data governance on datasets. By the end of this book, you'll be equipped to navigate the ever-evolving world of data engineering on Google Cloud, from foundational principles to cutting-edge practices.What you will learnLoad data into BigQuery and materialize its outputFocus on data pipeline orchestration using Cloud ComposerFormulate Airflow jobs to orchestrate and automate a data warehouseEstablish a Hadoop data lake, generate ephemeral clusters, and execute jobs on the Dataproc clusterHarness Pub/Sub for messaging and ingestion for event-driven systemsApply Dataflow to conduct ETL on streaming dataImplement data governance services on Google CloudWho this book is forData analysts, IT practitioners, software engineers, or any data enthusiasts looking to have a successful data engineering career will find this book invaluable. Additionally, experienced data professionals who want to start using Google Cloud to build data platforms will get clear insights on how to navigate the path. Whether you're a beginner who wants to explore the fundamentals or a seasoned professional seeking to learn the latest data engineering concepts, this book is for you.</t>
+  </si>
+  <si>
+    <t>9781835085363</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522560</t>
+  </si>
+  <si>
+    <t>9307210</t>
+  </si>
+  <si>
+    <t>Chen, Ruidi and Paschalidis, Ioannis Ch.</t>
+  </si>
+  <si>
+    <t>Distributionally Robust Learning</t>
+  </si>
+  <si>
+    <t>Many of the modern techniques to solve supervised learning problems suffer from a lack of interpretability and analyzability that do not give rise to rigorous mathematical results. This monograph develops a comprehensive statistical learning framework that uses Distributionally Robust Optimization (DRO) under the Wasserstein metric to ensure robustness to perturbations in the data. The authors introduce the reader to the fundamental properties of the Wasserstein metric and the DRO formulation, before explaining the theory in detail and its application. They cover a series of learning problems, including (i) distributionally robust linear regression; (ii) distributionally robust regression with group structure in the predictors; (iii) distributionally robust multi-output regression and multiclass classification; (iv) optimal decision making that combines distributionally robust regression with nearest-neighbor estimation; (v) distributionally robust semi-supervised learning; (vi) distributionally robust reinforcement learning. Throughout the monograph, the authors use applications in medicine and health care to illustrate the theoretical ideas in practice. They include numerical experiments and case studies using synthetic and real data. Distributionally Robust Learning provides a detailed insight into a technique that has gained a lot of recent interest in developing robust supervised learning solutions that are founded in sound mathematical principles. It will be enlightening for researchers, practitioners and students working on the optimization of machine learning systems.</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>9781680837735</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9307210</t>
+  </si>
+  <si>
+    <t>10945811</t>
+  </si>
+  <si>
+    <t>Lancho, Alejandro and Weiss, Amir and Lee, Gary C.F. and Jayashankar, Tejas and Kurien, Binoy G. and Polyanskiy, Yury and Wornell, Gregory W.</t>
+  </si>
+  <si>
+    <t>We address the critical problem of interference rejection in radio-frequency (RF) signals using a data-driven approach that leverages deep-learning methods. A primary contribution of this paper is the introduction of the RF Challenge, which is a publicly available, diverse RF signal dataset for data-driven analyses of RF signal problems. Specifically, we adopt a simplified signal model for developing and analyzing interference rejection algorithms. For this signal model, we introduce a set of carefully chosen deep learning architectures, incorporating key domain-informed modifications alongside traditional benchmark solutions to establish baseline performance metrics for this intricate, ubiquitous problem. Through extensive simulations involving eight different signal mixture types, we demonstrate the superior performance (in some cases, by two orders of magnitude) of architectures such as UNet and WaveNet over traditional methods like matched filtering and linear minimum mean square error estimation. Our findings suggest that the data-driven approach can yield scalable solutions, in the sense that the same architectures may be similarly trained and deployed for different types of signals. Moreover, these findings further corroborate the promising potential of deep learning algorithms for enhancing communication systems, particularly via interference mitigation. This work also includes results from an open competition based on the RF Challenge, hosted at the 2024 IEEE International Conference on Acoustics, Speech, and Signal Processing (ICASSP’24).</t>
+  </si>
+  <si>
+    <t>Interference;Source separation;Radio frequency;RF signals;Time-frequency analysis;Prevention and mitigation;Filtering;Vectors;Standards;Speech processing;Interference rejection;deep learning;source separation;wireless communication</t>
+  </si>
+  <si>
+    <t>10.1109/OJCOMS.2025.3556319</t>
+  </si>
+  <si>
+    <t>2644-125X</t>
+  </si>
+  <si>
+    <t>IEEE Open Journal of the Communications Society</t>
+  </si>
+  <si>
+    <t>RF Challenge: The Data-Driven Radio Frequency Signal Separation Challenge</t>
+  </si>
+  <si>
+    <t>8824174</t>
+  </si>
+  <si>
+    <t>Ringer, Talia and Palmskog, Karl and Sergey, Ilya and Gligoric, Milos and Tatlock, Zachary</t>
+  </si>
+  <si>
+    <t>QED at Large: A Survey of Engineering of Formally Verified Software</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Development of formal proofs of correctness of programs can increase actual and perceived reliability and facilitate better understanding of program specifications and their underlying assumptions. Tools supporting such development have been available for over 40 years but have only recently seen wide practical use. Projects based on construction of machine-checked formal proofs are now reaching an unprecedented scale, comparable to large software projects, which leads to new challenges in proof development and maintenance. Despite its increasing importance, the field of proof engineering is seldom considered in its own right; related theories, techniques, and tools span many fields and venues. QED at Large covers the timeline and research literature concerning proof development for program verification, including theories, languages, and tools. It emphasizes challenges and breakthroughs at each stage in history and highlights challenges that are currently present due to the increasing scale of proof developments. This monograph is intended for use by researchers and students who are new to the field. It provides the reader with an insightful overview of the work that has led to modern-day techniques for formally verifying software. In times of increasing automation, this underpins many software systems so future trends are also highlighted.</t>
+  </si>
+  <si>
+    <t>10.1561/2500000045</t>
+  </si>
+  <si>
+    <t>9781680835953</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8824174</t>
+  </si>
+  <si>
+    <t>9686971</t>
+  </si>
+  <si>
+    <t>Leach, Felix</t>
+  </si>
+  <si>
+    <t>Unsettled Topics Concerning Airport Cybersecurity Standards and Regulation</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>SAE</t>
+  </si>
+  <si>
+    <t>9781468603309</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9686971</t>
+  </si>
+  <si>
+    <t>Unsettled Issues in Vehicle Autonomy, Artificial Intelligence, and Human-Machine Interaction</t>
+  </si>
+  <si>
+    <t>10162902</t>
+  </si>
+  <si>
+    <t>Hsieh, Michael</t>
+  </si>
+  <si>
+    <t>Getting Started with Amazon SageMaker Studio: Learn to build end-to-end machine learning projects in the SageMaker machine learning IDE</t>
+  </si>
+  <si>
+    <t>Build production-grade machine learning models with Amazon SageMaker Studio, the first integrated development environment in the cloud, using real-life machine learning examples and codeKey FeaturesUnderstand the ML lifecycle in the cloud and its development on Amazon SageMaker StudioLearn to apply SageMaker features in SageMaker Studio for ML use casesScale and operationalize the ML lifecycle effectively using SageMaker StudioBook DescriptionAmazon SageMaker Studio is the first integrated development environment (IDE) for machine learning (ML) and is designed to integrate ML workflows: data preparation, feature engineering, statistical bias detection, automated machine learning (AutoML), training, hosting, ML explainability, monitoring, and MLOps in one environment. In this book, you'll start by exploring the features available in Amazon SageMaker Studio to analyze data, develop ML models, and productionize models to meet your goals. As you progress, you will learn how these features work together to address common challenges when building ML models in production. After that, you'll understand how to effectively scale and operationalize the ML life cycle using SageMaker Studio. By the end of this book, you'll have learned ML best practices regarding Amazon SageMaker Studio, as well as being able to improve productivity in the ML development life cycle and build and deploy models easily for your ML use cases.What you will learnExplore the ML development life cycle in the cloudUnderstand SageMaker Studio features and the user interfaceBuild a dataset with clicks and host a feature store for MLTrain ML models with ease and scaleCreate ML models and solutions with little codeHost ML models in the cloud with optimal cloud resourcesEnsure optimal model performance with model monitoringApply governance and operational excellence to ML projectsWho this book is forThis book is for data scientists and machine learning engineers who are looking to become well-versed with Amazon SageMaker Studio and gain hands-on machine learning experience to handle every step in the ML lifecycle, including building data as well as training and hosting models. Although basic knowledge of machine learning and data science is necessary, no previous knowledge of SageMaker Studio and cloud experience is required.</t>
+  </si>
+  <si>
+    <t>9781801073486</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162902</t>
+  </si>
+  <si>
+    <t>10745076</t>
+  </si>
+  <si>
+    <t>Arellano, Karen Chappell</t>
+  </si>
+  <si>
+    <t>Collaborative Intelligence: How Humans and AI Are Transforming Our World</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>This has never been an easy question. Today, it&amp;#x0027;s harder to answer than ever. Both words&amp;#x2014;&amp;#x201C;artificial&amp;#x201D; and &amp;#x201C;intelligence&amp;#x201D;&amp;#x2014;are so contested that some scholars today argue that AI is &amp;#x201C;neither artificial nor intelligent&amp;#x201D; (Crawford 2021). Many claim that we&amp;#x0027;re in the middle of a hype cycle, and there&amp;#x0027;s clearly some truth to this, given the number of companies using AI as a marketing term to sell products of dubious technical novelty&amp;#x2014;or value to society. As of early 2023, we still don&amp;#x0027;t have robots that can fold laundry.</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>9780262381178</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10745076</t>
+  </si>
+  <si>
+    <t>1 The Birth and Rebirth of AI</t>
+  </si>
+  <si>
+    <t>10884998</t>
+  </si>
+  <si>
+    <t>Lee, Seung Hyun and Kim, Sieun and Byeon, Wonmin and Oh, Gyeongrok and In, Sumin and Park, Hyeongcheol and Yoon, Sang Ho and Hong, Sung-Hee and Kim, Jinkyu and Kim, Sangpil</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1185-1204</t>
+  </si>
+  <si>
+    <t>We present a novel framework for audio-guided localized image stylization. Sound often provides information about the specific context of a scene and is closely related to a certain part of the scene or object. However, existing image stylization works have focused on stylizing the entire image using an image or text input. Stylizing a particular part of the image based on audio input is natural but challenging. This work proposes a framework in which a user provides an audio input to localize the target in the input image and another to locally stylize the target object or scene. We first produce a fine localization map using an audio-visual localization network leveraging CLIP embedding space. We then utilize an implicit neural representation (INR) along with the predicted localization map to stylize the target based on sound information. The INR manipulates local pixel values to be semantically consistent with the provided audio input. Our experiments show that the proposed framework outperforms other audio-guided stylization methods. Moreover, we observe that our method constructs concise localization maps and naturally manipulates the target object or scene in accordance with the given audio input.</t>
+  </si>
+  <si>
+    <t>Location awareness;Image segmentation;Visualization;Semantics;Electronic mail;Engines;Contrastive learning;Water resources;Noise;Space heating;audio guidance;image style transfer;implicit neural representations (INR)</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-024-0413-5</t>
+  </si>
+  <si>
+    <t>Audio-guided implicit neural representation for local image stylization</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>10558721</t>
+  </si>
+  <si>
+    <t>Mavi, Vaibhav and Jangra, Anubhav and Jatowt, Adam</t>
+  </si>
+  <si>
+    <t>Multi-hop Question Answering</t>
+  </si>
+  <si>
+    <t>Multi-hop Question Answering (MHQA) is the task of answering natural language questions that involve extracting and combining multiple pieces of information and doing multiple steps of reasoning. The ability to answer multi-hop questions and perform multi-step reasoning can significantly improve the utility of NLP systems. But the notion of ‘multiple hops’ is somewhat abstract which results in a large variety of tasks that require multi-hop reasoning. This leads to different datasets and models that differ significantly from each other and makes the field challenging to generalize and survey. In this monograph, the authors provide a general and formal definition of the MHQA task, and organize and summarize existing MHQA frameworks. They also outline some best practices for building MHQA datasets. This monograph provides a systematic and thorough introduction to Multi-Hop Question Answering that is becoming increasingly important in practical AI systems.</t>
+  </si>
+  <si>
+    <t>9781638283751</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10558721</t>
+  </si>
+  <si>
+    <t>10658582</t>
+  </si>
+  <si>
+    <t>Kim, Hoon and Jang, Minje and Yoon, Wonjun and Lee, Jisoo and Na, Donghyun and Woo, Sanghyun</t>
+  </si>
+  <si>
+    <t>2024 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
+  </si>
+  <si>
+    <t>25096-25106</t>
+  </si>
+  <si>
+    <t>We introduce a co-designed approach for human portrait relighting that combines a physics-guided architecture with a pretraining framework. Drawing on the Cook-Torrance reflectance model, we have meticulously configured the architecture design to precisely simulate light-surface interactions. Furthermore, to overcome the limitation of scarce high-quality lightstage data, we have developed a self-supervised pretraining strategy. This novel combination of accurate physical modeling and expanded training dataset establishes a new benchmark in relighting realism.</t>
+  </si>
+  <si>
+    <t>Training;Reflectivity;Solid modeling;Three-dimensional displays;Computational modeling;Computer architecture;Switches</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR52733.2024.02371</t>
+  </si>
+  <si>
+    <t>2575-7075</t>
+  </si>
+  <si>
+    <t>SwitchLight: Co-Design of Physics-Driven Architecture and Pre-training Framework for Human Portrait Relighting</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>10162583</t>
+  </si>
+  <si>
+    <t>Jacquier, Antoine and Kondratyev, Oleksiy and Lipton, Alexander and Prado, Marcos López de</t>
+  </si>
+  <si>
+    <t>Quantum Machine Learning and Optimisation in Finance: On the Road to Quantum Advantage</t>
+  </si>
+  <si>
+    <t>Learn the principles of quantum machine learning and how to apply them While focus is on financial use cases, all the methods and techniques are transferable to other fields Purchase of Print or Kindle includes a free eBook in PDFKey FeaturesDiscover how to solve optimisation problems on quantum computers that can provide a speedup edge over classical methodsUse methods of analogue and digital quantum computing to build powerful generative modelsCreate the latest algorithms that work on Noisy Intermediate-Scale Quantum (NISQ) computersBook DescriptionWith recent advances in quantum computing technology, we finally reached the era of Noisy Intermediate-Scale Quantum (NISQ) computing. NISQ-era quantum computers are powerful enough to test quantum computing algorithms and solve hard real-world problems faster than classical hardware. Speedup is so important in financial applications, ranging from analysing huge amounts of customer data to high frequency trading. This is where quantum computing can give you the edge. Quantum Machine Learning and Optimisation in Finance shows you how to create hybrid quantum-classical machine learning and optimisation models that can harness the power of NISQ hardware. This book will take you through the real-world productive applications of quantum computing. The book explores the main quantum computing algorithms implementable on existing NISQ devices and highlights a range of financial applications that can benefit from this new quantum computing paradigm. This book will help you be one of the first in the finance industry to use quantum machine learning models to solve classically hard real-world problems. We may have moved past the point of quantum computing supremacy, but our quest for establishing quantum computing advantage has just begun!What you will learnTrain parameterised quantum circuits as generative models that excel on NISQ hardwareSolve hard optimisation problemsApply quantum boosting to financial applicationsLearn how the variational quantum eigensolver and the quantum approximate optimisation algorithms workAnalyse the latest algorithms from quantum kernels to quantum semidefinite programmingApply quantum neural networks to credit approvalsWho this book is forThis book is for Quants and developers, data scientists, researchers, and students in quantitative finance. Although the focus is on financial use cases, all the methods and techniques are transferable to other areas.</t>
+  </si>
+  <si>
+    <t>9781801817875</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162583</t>
+  </si>
+  <si>
+    <t>10460906</t>
+  </si>
+  <si>
+    <t>Christensen, Jonas and Bajaj, Nakul and Gosada, Manmohan and Borne, Kirk D.</t>
+  </si>
+  <si>
+    <t>Data-Centric Machine Learning with Python: The ultimate guide to engineering and deploying high-quality models based on good data</t>
+  </si>
+  <si>
+    <t>Join the data-centric revolution and master the concepts, techniques, and algorithms shaping the future of AI and ML development, using PythonKey FeaturesGrasp the principles of data centricity and apply them to real-world scenariosGain experience with quality data collection, labeling, and synthetic data creation using PythonDevelop essential skills for building reliable, responsible, and ethical machine learning solutionsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn the rapidly advancing data-driven world where data quality is pivotal to the success of machine learning and artificial intelligence projects, this critically timed guide provides a rare, end-to-end overview of data-centric machine learning (DCML), along with hands-on applications of technical and non-technical approaches to generating deeper and more accurate datasets. This book will help you understand what data-centric ML/AI is and how it can help you to realize the potential of ‘small data’. Delving into the building blocks of data-centric ML/AI, you’ll explore the human aspects of data labeling, tackle ambiguity in labeling, and understand the role of synthetic data. From strategies to improve data collection to techniques for refining and augmenting datasets, you’ll learn everything you need to elevate your data-centric practices. Through applied examples and insights for overcoming challenges, you’ll get a roadmap for implementing data-centric ML/AI in diverse applications in Python. By the end of this book, you’ll have developed a profound understanding of data-centric ML/AI and the proficiency to seamlessly integrate common data-centric approaches in the model development lifecycle to unlock the full potential of your machine learning projects by prioritizing data quality and reliability.What you will learnUnderstand the impact of input data quality compared to model selection and tuningRecognize the crucial role of subject-matter experts in effective model developmentImplement data cleaning, labeling, and augmentation best practicesExplore common synthetic data generation techniques and their applicationsApply synthetic data generation techniques using common Python packagesDetect and mitigate bias in a dataset using best-practice techniquesUnderstand the importance of reliability, responsibility, and ethical considerations in ML/AIWho this book is forThis book is for data science professionals and machine learning enthusiasts looking to understand the concept of data-centricity, its benefits over a model-centric approach, and the practical application of a best-practice data-centric approach in their work. This book is also for other data professionals and senior leaders who want to explore the tools and techniques to improve data quality and create opportunities for small data ML/AI in their organizations.</t>
+  </si>
+  <si>
+    <t>9781804612415</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460906</t>
+  </si>
+  <si>
+    <t>10897703</t>
+  </si>
+  <si>
+    <t>Zhou, Qiu and Li, Manyi and Zeng, Qiong and Aristidou, Andreas and Zhang, Xiaojing and Chen, Lin and Tu, Changhe</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>531-550</t>
+  </si>
+  <si>
+    <t>Professional dance is characterized by high impulsiveness, elegance, and aesthetic beauty. In order to reach the desired professionalism, it requires years of long and exhausting practice, good physical condition, musicality, but also, a good understanding of choreography. Capturing dance motions and transferring them to digital avatars is commonly used in the film and entertainment industries. However, so far, access to high-quality dance data is very limited, mainly due to the many practical difficulties in capturing the movements of dancers, making it prohibitive for large-scale data acquisition. In this paper, we present a model that enhances the professionalism of amateur dance movements, allowing movement quality to be improved in both spatial and temporal domains. Our model consists of a dance-to-music alignment stage responsible for learning the optimal temporal alignment path between dance and music, and a dance-enhancement stage that injects features of professionalism in both spatial and temporal domains. To learn a homogeneous distribution and credible mapping between the heterogeneous professional and amateur datasets, we generate amateur data from professional dances taken from the AIST++ dataset. We demonstrate the effectiveness of our method by comparing it with two baseline motion transfer methods via thorough qualitative visual controls, quantitative metrics, and a perceptual study. We also provide temporal and spatial module analysis to examine the mechanisms and necessity of key components of our framework.</t>
+  </si>
+  <si>
+    <t>Humanities;Rhythm;Measurement;Correlation;Training;Synchronization;Motion measurement;Hidden Markov models;Feature extraction;Visualization;animation;music-to-motion alignment;dance motion enhancement;dance motion analysis</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-022-0292-6</t>
+  </si>
+  <si>
+    <t>Let's all dance: Enhancing amateur dance motions</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>8453245</t>
+  </si>
+  <si>
+    <t>Simeone, Osvaldo</t>
+  </si>
+  <si>
+    <t>A Brief Introduction to Machine Learning for Engineers</t>
+  </si>
+  <si>
+    <t>There is a wealth of literature and books available to engineers starting to understand what machine learning is and how it can be used in their everyday work. This presents the problem of where the engineer should start. The answer is often “for a general, but slightly outdated introduction, read this book; for a detailed survey of methods based on probabilistic models, check this reference; to learn about statistical learning, this text is useful” and so on. This monograph provides the starting point to the literature that every engineer new to machine learning needs. It offers a basic and compact reference that describes key ideas and principles in simple terms and within a unified treatment, encompassing recent developments and pointers to the literature for further study. A Brief Introduction to Machine Learning for Engineers is the entry point to machine learning for students, practitioners, and researchers with an engineering background in probability and linear algebra.</t>
+  </si>
+  <si>
+    <t>10.1561/2000000102</t>
+  </si>
+  <si>
+    <t>9781680834734</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8453245</t>
+  </si>
+  <si>
+    <t>9860032</t>
+  </si>
+  <si>
+    <t>Lu, Tan and Dooms, Ann</t>
+  </si>
+  <si>
+    <t>76-89</t>
+  </si>
+  <si>
+    <t>Textual documents, such as manuscripts and historical newspapers, make up an important part of our cultural heritage. Massive digitization projects have been conducted across the globe for a better preservation of, and for providing easier access to such, often vulnerable, documents. These digital counterparts also allow to unlock the rich information contained inside and across them thanks to various types of computational models for document image understanding. In this article, we will shed a light on the document image processing pipeline, from scan to information extraction. As it turns out, human perceptual-driven algorithms are among the most powerful approaches for generic document image understanding, required to deal with a myriad of layouts. In this context, we will in particular explain Gestalt visioning and the linked concept of text homogeneity that allows for enhanced layout analysis and even damage recognition, especially relevant in a cultural heritage setting. We conclude with a recent promising development, namely joint visual and language processing, that will take document image understanding to the next level in the future.</t>
+  </si>
+  <si>
+    <t>Optical character recognition;Text recognition;Layout;Image recognition;Feature extraction;Computational modeling;Visualization;History;Cultural differences;Document handling</t>
+  </si>
+  <si>
+    <t>10.1109/MBITS.2022.3199678</t>
+  </si>
+  <si>
+    <t>2692-4110</t>
+  </si>
+  <si>
+    <t>IEEE BITS the Information Theory Magazine</t>
+  </si>
+  <si>
+    <t>Document Image Understanding: Computational Image Processing in the Cultural Heritage Sector</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>10460766</t>
+  </si>
+  <si>
+    <t>MATLAB for Machine Learning: Unlock the power of deep learning for swift and enhanced results</t>
+  </si>
+  <si>
+    <t>Master MATLAB tools for creating machine learning applications through effective code writing, guided by practical examples showcasing the versatility of machine learning in real-world applicationsKey FeaturesWork with the MATLAB Machine Learning Toolbox to implement a variety of machine learning algorithmsEvaluate, deploy, and operationalize your custom models, incorporating bias detection and pipeline monitoringUncover effective approaches to deep learning for computer vision, time series analysis, and forecastingPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionDiscover why the MATLAB programming environment is highly favored by researchers and math experts for machine learning with this guide which is designed to enhance your proficiency in both machine learning and deep learning using MATLAB, paving the way for advanced applications. By navigating the versatile machine learning tools in the MATLAB environment, you’ll learn how to seamlessly interact with the workspace. You’ll then move on to data cleansing, data mining, and analyzing various types of data in machine learning, and visualize data values on a graph. As you progress, you’ll explore various classification and regression techniques, skillfully applying them with MATLAB functions. This book teaches you the essentials of neural networks, guiding you through data fitting, pattern recognition, and cluster analysis. You’ll also explore feature selection and extraction techniques for performance improvement through dimensionality reduction. Finally, you’ll leverage MATLAB tools for deep learning and managing convolutional neural networks. By the end of the book, you’ll be able to put it all together by applying major machine learning algorithms in real-world scenarios.What you will learnDiscover different ways to transform data into valuable insightsExplore the different types of regression techniquesGrasp the basics of classification through Naive Bayes and decision treesUse clustering to group data based on similarity measuresPerform data fitting, pattern recognition, and cluster analysisImplement feature selection and extraction for dimensionality reductionHarness MATLAB tools for deep learning explorationWho this book is forThis book is for ML engineers, data scientists, DL engineers, and CV/NLP engineers who want to use MATLAB for machine learning and deep learning. A fundamental understanding of programming concepts is necessary to get started.</t>
+  </si>
+  <si>
+    <t>9781835089538</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460766</t>
+  </si>
+  <si>
+    <t>10891735</t>
+  </si>
+  <si>
+    <t>Fan, Haishuang and Sun, Qichu and Wu, Jingya and Lu, Wenyan and Li, Xiaowei and Yan, Guihai</t>
+  </si>
+  <si>
+    <t>High-resolution (HR) videos have gained popularity with the widespread adoption of high-definition displays. Super-resolution (SR) techniques aim to recover HR frames from low-resolution (LR) frames. While deep neural network (DNN)-based SR methods have outperformed traditional techniques in quality, they face performance challenges. FPGA-based SR accelerators have been developed to optimize the performance and power efficiency. However, most of these accelerators process only uncompressed video frames and perform per-frame DNN inference, overlooking the temporal-spatial information inherent in compressed video bitstreams. We propose a novel compressed video SR workflow that includes a codec information reuse algorithm and a dedicated FPGA accelerator named Co-ViSu. Our approach leverages the observation that non-key frames can be reconstructed using codec information and HR key-frames, significantly reducing DNN computations. The Co-ViSu algorithm employs sub-pixel interpolation to enhance high-frequency details and an MV-aware method to improve SR reconstruction quality. The Co-ViSu hardware integrates decoder, SR, and encoder engines within a parallel pipeline architecture, utilizing codec information reuse to bypass non-key frame decoding, eliminate complex DNN computations, and accelerate encoding processes. Experimental results demonstrate that Co-ViSu achieves performance improvements ranging from 3.6x to 9.4x and a 4.2x gain in energy efficiency with minimal quality loss compared to traditional flow. Additionally, Co-ViSu offers a 2.1x increase in throughput compared to state-of-the-art solutions.</t>
+  </si>
+  <si>
+    <t>Binary sequences;Streaming media;Decoding;Artificial neural networks;Superresolution;Kernel;Engines;Design automation;Video codecs;Throughput;Super-resolution;Codec;Accelerator;FPGA</t>
+  </si>
+  <si>
+    <t>10.1109/TCAD.2025.3543428</t>
+  </si>
+  <si>
+    <t>1937-4151</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+  </si>
+  <si>
+    <t>Co-ViSu: Accelerating Video Super-Resolution With Codec Information Reuse</t>
+  </si>
+  <si>
+    <t>10251373</t>
+  </si>
+  <si>
+    <t>Saxena, Anshul and Mancilla, Javier and Montalban, Iraitz and Pere, Christophe</t>
+  </si>
+  <si>
+    <t>Financial Modeling Using Quantum Computing: Design and manage quantum machine learning solutions for financial analysis and decision making</t>
+  </si>
+  <si>
+    <t>Achieve optimized solutions for real-world financial problems using quantum machine learning algorithmsKey FeaturesLearn to solve financial analysis problems by harnessing quantum powerUnlock the benefits of quantum machine learning and its potential to solve problemsTrain QML to solve portfolio optimization and risk analytics problemsBook DescriptionQuantum computing has the potential to revolutionize the computing paradigm. By integrating quantum algorithms with artificial intelligence and machine learning, we can harness the power of qubits to deliver comprehensive and optimized solutions for intricate financial problems. This book offers step-by-step guidance on using various quantum algorithm frameworks within a Python environment, enabling you to tackle business challenges in finance. With the use of contrasting solutions from well-known Python libraries with quantum algorithms, you’ll discover the advantages of the quantum approach. Focusing on clarity, the authors expertly present complex quantum algorithms in a straightforward, yet comprehensive way. Throughout the book, you'll become adept at working with simple programs illustrating quantum computing principles. Gradually, you'll progress to more sophisticated programs and algorithms that harness the full power of quantum computing. By the end of this book, you’ll be able to design, implement and run your own quantum computing programs to turbocharge your financial modelling.What you will learnExplore framework, model and technique deployed for Quantum ComputingUnderstand the role of QC in financial modeling and simulationsApply Qiskit and Pennylane framework for financial modelingBuild and train models using the most well-known NISQ algorithmsExplore best practices for writing QML algorithmsUse QML algorithms to understand and solve data mining problemsWho this book is forThis book is for financial practitioners, quantitative analysts, or developers; looking to bring the power of quantum computing to their organizations. This is an essential resource written for finance professionals, who want to harness the power of quantum computers for solving real-world financial problems. A basic understanding of Python, calculus, linear algebra, and quantum computing is a prerequisite.</t>
+  </si>
+  <si>
+    <t>9781804614877</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251373</t>
+  </si>
+  <si>
+    <t>10162689</t>
+  </si>
+  <si>
+    <t>T. White, Ryan and Ray, Archana Tikayat</t>
+  </si>
+  <si>
+    <t>Practical Discrete Mathematics: Discover math principles that fuel algorithms for computer science and machine learning with Python</t>
+  </si>
+  <si>
+    <t>A practical guide simplifying discrete math for curious minds and demonstrating its application in solving problems related to software development, computer algorithms, and data scienceKey FeaturesApply the math of countable objects to practical problems in computer scienceExplore modern Python libraries such as scikit-learn, NumPy, and SciPy for performing mathematicsLearn complex statistical and mathematical concepts with the help of hands-on examples and expert guidanceBook DescriptionDiscrete mathematics deals with studying countable, distinct elements, and its principles are widely used in building algorithms for computer science and data science. The knowledge of discrete math concepts will help you understand the algorithms, binary, and general mathematics that sit at the core of data-driven tasks. Practical Discrete Mathematics is a comprehensive introduction for those who are new to the mathematics of countable objects. This book will help you get up to speed with using discrete math principles to take your computer science skills to a more advanced level. As you learn the language of discrete mathematics, you’ll also cover methods crucial to studying and describing computer science and machine learning objects and algorithms. The chapters that follow will guide you through how memory and CPUs work. In addition to this, you’ll understand how to analyze data for useful patterns, before finally exploring how to apply math concepts in network routing, web searching, and data science. By the end of this book, you’ll have a deeper understanding of discrete math and its applications in computer science, and be ready to work on real-world algorithm development and machine learning.What you will learnUnderstand the terminology and methods in discrete math and their usage in algorithms and data problemsUse Boolean algebra in formal logic and elementary control structuresImplement combinatorics to measure computational complexity and manage memory allocationUse random variables, calculate descriptive statistics, and find average-case computational complexitySolve graph problems involved in routing, pathfinding, and graph searches, such as depth-first searchPerform ML tasks such as data visualization, regression, and dimensionality reductionWho this book is forThis book is for computer scientists looking to expand their knowledge of discrete math, the core topic of their field. University students looking to get hands-on with computer science, mathematics, statistics, engineering, or related disciplines will also find this book useful. Basic Python programming skills and knowledge of elementary real-number algebra are required to get started with this book.</t>
+  </si>
+  <si>
+    <t>9781838983505</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162689</t>
+  </si>
+  <si>
+    <t>10685429</t>
+  </si>
+  <si>
+    <t>Li, Junchen and Zhang, Yang and Xu, Kele and Wang, Tao and Wang, Huaimin</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Conference on Joint Cloud Computing (JCC)</t>
+  </si>
+  <si>
+    <t>68-75</t>
+  </si>
+  <si>
+    <t>With the development of AI model ecology pioneered by the large language models, data plays a more important and diversified role than the traditional one. In recent years, data problems have been increasingly noticed and voiced by developers, and it is crucial to understand the existing challenges that they are facing in reality, as well as the potential features of these problems. Unfortunately, we currently have relatively little knowledge in this area. To fill this gap, we conduct an empirical study based on 2,154 posts and 785 issues by collecting model data problems from three online communities (i.e., GitHub, Stack Overflow, and Hugging Face). We present the first taxonomy of data problems around model production encountered by developers, covering 11 topics in 4 categories. Then, we analyze the popularity and the difficulty of the posts and issues in the derived topics. We distill many findings from the study and present the practical implications from the perspectives of different audiences.</t>
+  </si>
+  <si>
+    <t>Biological system modeling;Large language models;Taxonomy;Production;Manuals;Data models;Ecology;AI;Model Data;Empirical Study;Posts;Issues</t>
+  </si>
+  <si>
+    <t>10.1109/JCC62314.2024.00018</t>
+  </si>
+  <si>
+    <t>Understanding the Challenges of Data Management in the AI Application Development</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>10162868</t>
+  </si>
+  <si>
+    <t>Audevart, Alexia and Banachewicz, Konrad and Massaron, Luca</t>
+  </si>
+  <si>
+    <t>Machine Learning Using TensorFlow Cookbook: Create powerful machine learning algorithms with TensorFlow</t>
+  </si>
+  <si>
+    <t>Comprehensive recipes to give you valuable insights on Transformers, Reinforcement Learning, and moreKey FeaturesDeep Learning solutions from Kaggle Masters and Google Developer ExpertsGet to grips with the fundamentals including variables, matrices, and data sourcesLearn advanced techniques to make your algorithms faster and more accurateBook DescriptionThe independent recipes in Machine Learning Using TensorFlow Cookbook will teach you how to perform complex data computations and gain valuable insights into your data. Dive into recipes on training models, model evaluation, sentiment analysis, regression analysis, artificial neural networks, and deep learning - each using Google’s machine learning library, TensorFlow. This cookbook covers the fundamentals of the TensorFlow library, including variables, matrices, and various data sources. You’ll discover real-world implementations of Keras and TensorFlow and learn how to use estimators to train linear models and boosted trees, both for classification and regression. Explore the practical applications of a variety of deep learning architectures, such as recurrent neural networks and Transformers, and see how they can be used to solve computer vision and natural language processing (NLP) problems. With the help of this book, you will be proficient in using TensorFlow, understand deep learning from the basics, and be able to implement machine learning algorithms in real-world scenarios.What you will learnTake TensorFlow into productionImplement and fine-tune Transformer models for various NLP tasksApply reinforcement learning algorithms using the TF-Agents frameworkUnderstand linear regression techniques and use Estimators to train linear modelsExecute neural networks and improve predictions on tabular dataMaster convolutional neural networks and recurrent neural networks through practical recipesWho this book is forIf you are a data scientist or a machine learning engineer, and you want to skip detailed theoretical explanations in favor of building production-ready machine learning models using TensorFlow, this book is for you. Basic familiarity with Python, linear algebra, statistics, and machine learning is necessary to make the most out of this book.</t>
+  </si>
+  <si>
+    <t>9781800206885</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162868</t>
+  </si>
+  <si>
+    <t>10769404</t>
+  </si>
+  <si>
+    <t>Zervou, Maria</t>
+  </si>
+  <si>
+    <t>Python Data Cleaning and Preparation Best Practices: A practical guide to organizing and handling data from various sources and formats using Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take your data preparation skills to the next level by converting any type of data asset into a structured, formatted, and readily usable dataset Key FeaturesMaximize the value of your data through effective data cleaning methodsEnhance your data skills using strategies for handling structured and unstructured dataElevate the quality of your data products by testing and validating your data pipelinesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionProfessionals face several challenges in effectively leveraging data in today's data-driven world. One of the main challenges is the low quality of data products, often caused by inaccurate, incomplete, or inconsistent data. Another significant challenge is the lack of skills among data professionals to analyze unstructured data, leading to valuable insights being missed that are difficult or impossible to obtain from structured data alone. To help you tackle these challenges, this book will take you on a journey through the upstream data pipeline, which includes the ingestion of data from various sources, the validation and profiling of data for high-quality end tables, and writing data to different sinks. You’ll focus on structured data by performing essential tasks, such as cleaning and encoding datasets and handling missing values and outliers, before learning how to manipulate unstructured data with simple techniques. You’ll also be introduced to a variety of natural language processing techniques, from tokenization to vector models, as well as techniques to structure images, videos, and audio. By the end of this book, you’ll be proficient in data cleaning and preparation techniques for both structured and unstructured data.What you will learnIngest data from different sources and write it to the required sinksProfile and validate data pipelines for better quality controlGet up to speed with grouping, merging, and joining structured dataHandle missing values and outliers in structured datasetsImplement techniques to manipulate and transform time series dataApply structure to text, image, voice, and other unstructured dataWho this book is forWhether you're a data analyst, data engineer, data scientist, or a data professional responsible for data preparation and cleaning, this book is for you. Working knowledge of Python programming is needed to get the most out of this book. </t>
+  </si>
+  <si>
+    <t>9781837632909</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769404</t>
+  </si>
+  <si>
+    <t>10769368</t>
+  </si>
+  <si>
+    <t>Deckler, Greg and Powell, Brett</t>
+  </si>
+  <si>
+    <t>Microsoft Power BI Cookbook: Convert raw data into business insights with updated techniques, use cases, and best practices</t>
+  </si>
+  <si>
+    <t>Now in color, this edition helps you unlock the full potential of Power BI with new recipes and comprehensive techniques on advanced data tools and AIKey FeaturesDive into Microsoft Data Fabric for deeper insights and robust data strategiesImplement Hybrid tables, create comprehensive scorecards, and establish shared cloud connections effortlesslyUncover new and updated data visualization tools that turn complex data into clear, actionable charts and reportsPurchase of the print or Kindle book includes a free eBook in PDF formatBook DescriptionSince its first edition the Power BI Cookbook has been a best-selling resource for BI developers and data analysts to produce impactful, quality BI solutions. This new and updated edition retains the rigorous details and concepts readers of prior editions have enjoyed while also demonstrating powerful new capabilities and updated guidance aligned to the current state of the platform. In this book, with step-by-step instructions, you will learn to navigate the complexities of data integration and visualization in Power BI. From creating robust data models to implementing sophisticated reporting techniques, this Power BI book empowers you to make informed decisions based on actionable insights. It also introduces you to new capabilities such as Hybrid tables and scorecards, enhancing your ability to communicate and analyze business performance. It also expands and improvises on the core of the previous edition like parameterizing Power BI solutions, authoring reports, data intelligence, and integrating advanced analytics. This edition not only updates you on the latest features but also prepares you for future innovations with a preview of upcoming AI enhancements in Power BI. Whether you're refining your skills or aspiring to become an expert, this book is an invaluable resource for leveraging Power BI to its fullest potentialWhat you will learnAnalyze and integrate business data using Microsoft Data FabricCreate impactful visualizations and manage Hybrid tablesDevelop shared cloud connections and advanced scorecardsEnhance report accuracy and dynamics using real-time data processingImplement efficient data governance and security measures within Power BIWho this book is forThis book is designed for data analysts, business intelligence professionals, and anyone involved in data processing or analytics who seeks to enhance their skills with Power BI’s latest features and prepare for future advancements in the field</t>
+  </si>
+  <si>
+    <t>9781835464663</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769368</t>
+  </si>
+  <si>
+    <t>10460908</t>
+  </si>
+  <si>
+    <t>Lat, Jane Sarah</t>
+  </si>
+  <si>
+    <t>Managing Data Integrity for Finance: Discover practical data quality management strategies for finance analysts and data professionals</t>
+  </si>
+  <si>
+    <t>Level up your career by learning best practices for managing the data quality and integrity of your financial dataKey FeaturesAccelerate data integrity management using artificial intelligence-powered solutionsLearn how business intelligence tools, ledger databases, and database locks solve data integrity issuesFind out how to detect fraudulent transactions affecting financial report integrityBook DescriptionData integrity management plays a critical role in the success and effectiveness of organizations trying to use financial and operational data to make business decisions. Unfortunately, there is a big gap between the analysis and management of finance data along with the proper implementation of complex data systems across various organizations. The first part of this book covers the important concepts for data quality and data integrity relevant to finance, data, and tech professionals. The second part then focuses on having you use several data tools and platforms to manage and resolve data integrity issues on financial data. The last part of this the book covers intermediate and advanced solutions, including managed cloud-based ledger databases, database locks, and artificial intelligence, to manage the integrity of financial data in systems and databases. After finishing this hands-on book, you will be able to solve various data integrity issues experienced by organizations globally.What you will learnDevelop a customized financial data quality scorecardUtilize business intelligence tools to detect, manage, and resolve data integrity issuesFind out how to use managed cloud-based ledger databases for financial data integrityApply database locking techniques to prevent transaction integrity issues involving finance dataDiscover the methods to detect fraudulent transactions affecting financial report integrityUse artificial intelligence-powered solutions to resolve various data integrity issues and challengesWho this book is forThis book is for financial analysts, technical leaders, and data professionals interested in learning practical strategies for managing data integrity and data quality using relevant frameworks and tools. A basic understanding of finance concepts, accounting, and data analysis is expected. Knowledge of finance management is not a prerequisite, but it’ll help you grasp the more advanced topics covered in this book.</t>
+  </si>
+  <si>
+    <t>9781837636099</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460908</t>
+  </si>
+  <si>
+    <t>9307214</t>
+  </si>
+  <si>
+    <t>Garg, Sourav and Sünderhauf, Niko and Dayoub, Feras and Morrison, Douglas and Cosgun, Akansel and Carneiro, Gustavo and Wu, Qi and Chin, Tat-Jun and Reid, Ian and Gould, Stephen and Corke, Peter and Milford, Michael</t>
+  </si>
+  <si>
+    <t>Semantics for Robotic Mapping, Perception and Interaction: A Survey</t>
+  </si>
+  <si>
+    <t>For robots to navigate and interact more richly with the world around them, they will likely require a deeper understanding of the world in which they operate. In robotics and related research fields, the study of understanding is often referred to as semantics, which dictates what does the world ‘mean’ to a robot, and is strongly tied to the question of how to represent that meaning. With humans and robots increasingly operating in the same world, the prospects of human-robot interaction also bring semantics and ontology of natural language into the picture. Driven by need, as well as by enablers like increasing availability of training data and computational resources, semantics is a rapidly growing research area in robotics. The field has received significant attention in the research literature to date, but most reviews and surveys have focused on particular aspects of the topic: the technical research issues regarding its use in specific robotic topics like mapping or segmentation, or its relevance to one particular application domain like autonomous driving. A new treatment is therefore required, and is also timely because so much relevant research has occurred since many of the key surveys were published. This survey provides an overarching snapshot of where semantics in robotics stands today. We establish a taxonomy for semantics research in or relevant to robotics, split into four broad categories of activity in which semantics are extracted, used, or both. Within these broad categories, we survey dozens of major topics including fundamentals from the computer vision field and key robotics research areas utilizing semantics such as mapping, navigation and interaction with the world. The survey also covers key practical considerations, including enablers like increased data availability and improved computational hardware, and major application areas where semantics is or is likely to play a key role. In creating this survey, we hope to provide researchers across academia and industry with a comprehensive reference that helps facilitate future research in this exciting field.</t>
+  </si>
+  <si>
+    <t>9781680837698</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9307214</t>
+  </si>
+  <si>
+    <t>10848476</t>
+  </si>
+  <si>
+    <t>Linjanja, Pacifique</t>
+  </si>
+  <si>
+    <t>Scalable Application Development with NestJS: Leverage REST, GraphQL, microservices, testing, and deployment for seamless growth</t>
+  </si>
+  <si>
+    <t>Build production-ready, scalable applications that stand up to enterprise demands with NestJS while learning all about APIs, GraphQL, and moreKey FeaturesUnderstand the basics of robust modern apps, design patterns, and NestJS architectureBuild, test, and scale Rest APIs and GraphQL APIs using NestJSUtilize microservice architecture, DevOps, security, and communication patterns for modern API developmentPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn this book, Pacifique Linjanja, a globally recognized software engineer and open-source contributor, shares his deep technical expertise and practical insights from his extensive experience delivering enterprise-level applications to unpack the full potential of NestJS, the cutting-edge Node.js framework. This book covers the core concepts, design patterns, and best practices for building scalable, high-performance applications with NestJS. You’ll learn REST API and GraphQL implementations, harness the power of microservices, and explore real-world case studies, including e-commerce, social networking, and ERP systems. The chapters provide step-by-step guidance for setting up your development environment with TypeScript and npm, structuring projects effectively, and using the Apollo Federation architecture to create efficient GraphQL APIs. This book offers hands-on guidance for testing and debugging APIs, handling exceptions, and validating data using pipes and guards, all while helping you build a complete NestJS application from scratch. By the end, you'll be ready to apply DevOps principles for continuous integration and deployment, as well as secure your NestJS applications using advanced techniques.What you will learnMaster NestJS architecture and set up your environment with Node.js, npm, and TypeScriptApply design patterns and best practices to build robust, maintainable appsBuild REST APIs and leverage GraphQL for flexible queryingUse microservices architecture to efficiently scale your applicationsUnderstand how to test and debug APIs for optimal performanceImplement Apollo Federation for efficient GraphQL APIs in a federated systemSecure NestJS apps with advanced techniquesWho this book is forIf you are a software engineer, developer, or a tech lead looking to build scalable applications using NestJS, REST, GraphQL, and microservices, this book is for you. Whether you're new to NestJS or a seasoned developer, this guide will help you leverage NestJS for your next big project. It’s also ideal for project managers and other IT professionals seeking insights into enterprise-level efficient development, testing strategies, and deployment processes. Even technology enthusiasts will find this book enlightening.</t>
+  </si>
+  <si>
+    <t>9781835463956</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10848476</t>
+  </si>
+  <si>
+    <t>10829523</t>
+  </si>
+  <si>
+    <t>Chen, George H.</t>
+  </si>
+  <si>
+    <t>An Introduction to Deep Survival Analysis Models for Predicting Time-to-Event Outcomes</t>
+  </si>
+  <si>
+    <t>The earliest research into time-to-event outcomes can be dated back to the 17th century. Here the initial focus was predicting time until death, hence the term survival analysis. Applications of time-to-event outcomes are to be found in many walks of life, such as insurance, medicine, and even calculating when will a customer end their subscription. Recently, the machine learning community has made significant methodological advances in survival analysis that take advantage of the representation learning ability of deep neural networks. At this point, there is a proliferation of deep survival analysis models. In this monograph, the author provides a self-contained modern introduction to survival analysis. The focus is on predicting time-to-event outcomes at the individual data point level with the help of neural networks. They provide the reader with a working understanding of precisely what the basic time-to-event prediction problem is, how it differs from standard regression and classification, and how key “design patterns” have been used time after time to derive new time-to-event prediction models. The author also details two extensions of the basic time-to-event prediction setup, namely the competing risks setting and the dynamic setting. The monograph concludes with a discussion of a variety of topics such as fairness, causal reasoning, interpretability, and statistical guarantees. This timely monograph provides researchers and students with a succinct introduction to the use of time-to-event outcomes in modern artificial intelligence driven systems.</t>
+  </si>
+  <si>
+    <t>9781638284550</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10829523</t>
+  </si>
+  <si>
+    <t>10747216</t>
+  </si>
+  <si>
+    <t>Lee, Lik-Hang and Braud, Tristan and Zhou, Peng Yuan and Wang, Lin and Xu, Dianlei and Lin, Zijun and Kumar, Abhishek and Bermejo, Carlos and Hui, Pan</t>
+  </si>
+  <si>
+    <t>All One Needs to Know about Metaverse: A Complete Survey on Technological Singularity, Virtual Ecosystem, and Research Agenda</t>
+  </si>
+  <si>
+    <t>Since the popularisation of the Internet in the 1990s, the cyberspace has kept evolving. We have created various computer-mediated virtual environments, including social networks, video conferencing, virtual 3D worlds (e.g., VR Chat), augmented reality applications (e.g., Pokémon Go), and Non-Fungible Token Games (e.g., Upland). Such virtual environments, albeit non-perpetual and unconnected, have brought us various degrees of digital transformation. The term ‘metaverse’ has been coined to facilitate further digital transformation in every aspect of our physical lives. At the core of the metaverse stands the vision of an immersive Internet as a gigantic, unified, persistent, and shared realm. While the metaverse may seem futuristic, catalysed by emerging technologies such as Extended Reality, 5G, and Artificial Intelligence, the digital ‘big bang’ of our cyberspace is not far away. This monograph presents the first effort to offer a comprehensive framework that examines the latest metaverse development under the dimensions of state-of-the-art technologies and metaverse ecosystems, and illustrates the possibility of the digital ‘big bang’. It is essential to highlight that the metaverse encompasses diverse technologies and ecosystems, calling it an interdisciplinary and emerging field. Its primary objective is to provide users with satisfactory and interactive experiences. First, technologies are the enablers that drive the transition from the current Internet to the metaverse. Eight enabling technologies are rigorously examined - Extended Reality, User Interactivity (Human-Computer Interaction), Artificial Intelligence, Blockchain, Computer Vision, IoT and Robotics, Edge and Cloud computing, and Future Mobile Networks. In terms of applications, the metaverse ecosystem allows human users to live and play within a self-sustaining, persistent, and shared realm. Therefore, six user-centric factors are discussed – Avatar, Content Creation, Virtual Economy, Social Acceptability, Security and Privacy, and Trust and Accountability. Finally, a concrete research agenda is examined for developing the metaverse.</t>
+  </si>
+  <si>
+    <t>9781638284451</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10747216</t>
+  </si>
+  <si>
+    <t>10722883</t>
+  </si>
+  <si>
+    <t>Dizeu, Frank Billy Djupkep and Picard, Michel and Drouin, Marc-Antoine and Boisvert, Jonathan</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>Measuring the 3D shape of semi-transparent surfaces with projector-camera 3D scanners is a difficult task because these surfaces weakly reflect light in a diffuse manner, and transmit a large part of the incident light. The task is even harder in the presence of participating background surfaces. The two methods proposed in this paper use sinusoidal patterns, each with a frequency chosen in the frequency range allowed by the projection optics of the projector-camera system. They differ in the way in which the camera-projector correspondence map is established, as well as in the number of patterns and the processing time required. The first method utilizes the discrete Fourier transform, performed on the intensity signal measured at a camera pixel, to inventory projector columns illuminating directly and indirectly the scene point imaged by that pixel. The second method goes beyond discrete Fourier transform and achieves the same goal by fitting a proposed analytical model to the measured intensity signal. Once the one (camera pixel) to many (projector columns) correspondence is established, a surface continuity constraint is applied to extract the one to one correspondence map linked to the semi-transparent surface. This map is used to determine the 3D point cloud of the surface by triangulation. Experimental results demonstrate the performance (accuracy, reliability) achieved by the proposed methods.</t>
+  </si>
+  <si>
+    <t>Three-dimensional displays;Cameras;Shape;Shape measurement;Surface reconstruction;Surface treatment;Lighting;Discrete Fourier transforms;Phase measurement;Distortion measurement;3D shape measurement;3D point cloud;semi-transparent surfaces;structured light;fringe projection;curve fitting;parameter estimation;Discrete Fourier Transform</t>
+  </si>
+  <si>
+    <t>10.1109/TVCG.2024.3477413</t>
+  </si>
+  <si>
+    <t>1941-0506</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Visualization and Computer Graphics</t>
+  </si>
+  <si>
+    <t>Multi-Frequency Nonlinear Methods for 3D Shape Measurement of Semi-Transparent Surfaces Using Projector-Camera Systems</t>
+  </si>
+  <si>
+    <t>10163498</t>
+  </si>
+  <si>
+    <t>Rothman, Denis</t>
+  </si>
+  <si>
+    <t>Transformers for Natural Language Processing: Build innovative deep neural network architectures for NLP with Python, PyTorch, TensorFlow, BERT, RoBERTa, and more</t>
+  </si>
+  <si>
+    <t>Publisher's Note: A new edition of this book is out now that includes working with GPT-3 and comparing the results with other models. It includes even more use cases, such as casual language analysis and computer vision tasks, as well as an introduction to OpenAI's Codex.Key FeaturesBuild and implement state-of-the-art language models, such as the original Transformer, BERT, T5, and GPT-2, using concepts that outperform classical deep learning modelsGo through hands-on applications in Python using Google Colaboratory Notebooks with nothing to install on a local machineTest transformer models on advanced use casesBook DescriptionThe transformer architecture has proved to be revolutionary in outperforming the classical RNN and CNN models in use today. With an apply-as-you-learn approach, Transformers for Natural Language Processing investigates in vast detail the deep learning for machine translations, speech-to-text, text-to-speech, language modeling, question answering, and many more NLP domains with transformers. The book takes you through NLP with Python and examines various eminent models and datasets within the transformer architecture created by pioneers such as Google, Facebook, Microsoft, OpenAI, and Hugging Face. The book trains you in three stages. The first stage introduces you to transformer architectures, starting with the original transformer, before moving on to RoBERTa, BERT, and DistilBERT models. You will discover training methods for smaller transformers that can outperform GPT-3 in some cases. In the second stage, you will apply transformers for Natural Language Understanding (NLU) and Natural Language Generation (NLG). Finally, the third stage will help you grasp advanced language understanding techniques such as optimizing social network datasets and fake news identification. By the end of this NLP book, you will understand transformers from a cognitive science perspective and be proficient in applying pretrained transformer models by tech giants to various datasets.What you will learnUse the latest pretrained transformer modelsGrasp the workings of the original Transformer, GPT-2, BERT, T5, and other transformer modelsCreate language understanding Python programs using concepts that outperform classical deep learning modelsUse a variety of NLP platforms, including Hugging Face, Trax, and AllenNLPApply Python, TensorFlow, and Keras programs to sentiment analysis, text summarization, speech recognition, machine translations, and moreMeasure the productivity of key transformers to define their scope, potential, and limits in productionWho this book is forSince the book does not teach basic programming, you must be familiar with neural networks, Python, PyTorch, and TensorFlow in order to learn their implementation with Transformers. Readers who can benefit the most from this book include experienced deep learning &amp; NLP practitioners and data analysts &amp; data scientists who want to process the increasing amounts of language-driven data.</t>
+  </si>
+  <si>
+    <t>9781800568631</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163498</t>
+  </si>
+  <si>
+    <t>10769270</t>
+  </si>
+  <si>
+    <t>Diogenes, Yuri</t>
+  </si>
+  <si>
+    <t>Enhancing Your Cloud Security with a CNAPP Solution: Unlock the full potential of Microsoft Defender for Cloud to fortify your cloud security</t>
+  </si>
+  <si>
+    <t>Implement the entire CNAPP lifecycle from designing, planning, adopting, deploying, and operationalizing to enhance your organization's overall cloud security posture.Key FeaturesMaster the CNAPP lifecycle from planning to operationalization using real-world practical scenarios.Dive deep into the features of Microsoft's Defender for Cloud to elevate your organization’s security posture.Explore hands-on examples and implementation techniques from a leading expert in the cybersecurity industryBook DescriptionCloud security is a pivotal aspect of modern IT infrastructure, essential for safeguarding critical data and services. This comprehensive book explores Cloud Native Application Protection Platform (CNAPP), guiding you through adopting, deploying, and managing these solutions effectively. Written by Yuri Diogenes, Principal PM at Microsoft, who has been with Defender for Cloud (formerly Azure Security Center) since its inception, this book distills complex concepts into actionable knowledge making it an indispensable resource for Cloud Security professionals. The book begins with a solid foundation detailing the why and how of CNAPP, preparing you for deeper engagement with the subject. As you progress, it delves into practical applications, including using Microsoft Defender for Cloud to enhance your organization's security posture, handle multicloud environments, and integrate governance and continuous improvement practices into your operations. Further, you'll learn how to operationalize your CNAPP framework, emphasizing risk management &amp; attack disruption, leveraging AI to enhance security measures, and integrating Defender for Cloud with Microsoft Security Exposure Management. By the end, you'll be ready to implement and optimize a CNAPP solution in your workplace, ensuring a robust defense against evolving threats.What you will learnImplement Microsoft Defender for Cloud across diverse IT environmentsHarness DevOps security capabilities to tighten cloud operationsLeverage AI tools such as Microsoft Copilot for Security to help remediate security recommendations at scaleIntegrate Microsoft Defender for Cloud with other XDR, SIEM (Microsoft Sentinel) and Microsoft Security Exposure ManagementOptimize your cloud security posture with continuous improvement practicesDevelop effective incident response plans and proactive threat hunting techniquesWho this book is forThis book is aimed at Cloud Security Professionals that work with Cloud Security, Posture Management, or Workload Protection. DevOps Engineers that need to have a better understanding of Cloud Security Tools and SOC Analysts that need to understand how CNAPP can enhance their threat hunting capabilities can also benefit from this book. Basic knowledge of Cloud Computing, including Cloud Providers such as Azure, AWS, and GCP is assumed.</t>
+  </si>
+  <si>
+    <t>9781836204862</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769270</t>
+  </si>
+  <si>
+    <t>10747218</t>
+  </si>
+  <si>
+    <t>Guimarães, Francisco R. V. and da Silva, José Mairton B. and Casimiro Cavalcante, Charles and Fodor, Gabor and Bengtsson, Mats and Fischione, Carlo</t>
+  </si>
+  <si>
+    <t>Machine Learning for Spectrum Sharing: A Survey</t>
+  </si>
+  <si>
+    <t>The 5th generation (5G) of wireless systems is being deployed with the aim to provide many sets of wireless communication services, such as low data rates for a massive amount of devices, broadband, low latency, and industrial wireless access. Such an aim is even more complex in the next generation wireless systems (6G) where wireless connectivity is expected to serve any connected intelligent unit, such as software robots and humans interacting in the metaverse, autonomous vehicles, drones, trains, or smart sensors monitoring cities, buildings, and the environment. As the wireless devices will be orders of magnitude denser than in 5G cellular systems, and due to the complex quality of service requirements, the access to the wireless spectrum will have to be appropriately shared to avoid congestion, poor quality of service, or unsatisfactory communication delays. Spectrum sharing methods have been the objective of intense study through model-based approaches, such as optimization or game theories. However, these methods may fail when facing the complexity of the communication environments in 5G, 6G, and beyond. Recently, there has been significant interest in the application and development of data-driven methods, namely machine learning methods, to handle the complex operation of spectrum sharing. In this monograph, a complete overview of the state-of-the-art of machine learning for spectrum sharing is provided. First, the authors map the most prominent methods that are encountered in spectrum sharing. Then, it is shown how these machine learning methods are applied to the numerous dimensions and sub-problems of spectrum sharing, such as spectrum sensing, spectrum allocation, spectrum access, and spectrum handoff. Finally, several open questions and future trends are highlighted.</t>
+  </si>
+  <si>
+    <t>Spectrum sharing</t>
+  </si>
+  <si>
+    <t>9781638284314</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10747218</t>
+  </si>
+  <si>
+    <t>9453369</t>
+  </si>
+  <si>
+    <t>Feldman, David</t>
+  </si>
+  <si>
+    <t>Chaos and Dynamical Systems</t>
+  </si>
+  <si>
+    <t>Chaos and Dynamical Systems presents an accessible, clear introduction to dynamical systems and chaos theory, important and exciting areas that have shaped many scientific fields. While the rules governing dynamical systems are well-specified and simple, the behavior of many dynamical systems is remarkably complex. Of particular note, simple deterministic dynamical systems produce output that appears random and for which long-term prediction is impossible. Using little math beyond basic algebra, David Feldman gives readers a grounded, concrete, and concise overview.In initial chapters, Feldman introduces iterated functions and differential equations. He then surveys the key concepts and results to emerge from dynamical systems: chaos and the butterfly effect, deterministic randomness, bifurcations, universality, phase space, and strange attractors. Throughout, Feldman examines possible scientific implications of these phenomena for the study of complex systems, highlighting the relationships between simplicity and complexity, order and disorder.Filling the gap between popular accounts of dynamical systems and chaos and textbooks aimed at physicists and mathematicians, Chaos and Dynamical Systems will be highly useful not only to students at the undergraduate and advanced levels, but also to researchers in the natural, social, and biological sciences.</t>
+  </si>
+  <si>
+    <t>9780691189390</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9453369</t>
+  </si>
+  <si>
+    <t>10745364</t>
+  </si>
+  <si>
+    <t>Nwaiwu, Ikenna</t>
+  </si>
+  <si>
+    <t>Automating API Delivery: APIOps with OpenAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve speed, quality, AND cost by automating your API delivery process! Automating API Delivery shows you how to strike the perfect balance between speed and usability by applying DevOps automation principles to your API design and delivery process. It lays out a clear path to making both the organizational and technical changes you need to deliver high-quality APIs both rapidly and reliably. In Automating API Delivery you’ll learn how to:  Enforce API design standards with linting Automate breaking-change checks to control design creep Ensure accuracy of API reference documents Centralize API definition consistency checks Automate API configuration deployment Conduct effective API design reviews  Author Ikenna Nwaiwu provides comprehensive guidance on implementing APIOps in your organization. He carefully walks through the technical steps and introduces the essential open-source tools, with practical advice and insights from his years of experience. You’ll benefit from his personal tips for avoiding common pitfalls and challenges of moving to automated API delivery.</t>
+  </si>
+  <si>
+    <t>APIOps;CI/CD;RESTful;design reviews;design creep;breaking-change checks;linting;conformance;fast;Schemathesis;Portman;secure;consistent;easy</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>9781633438781</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10745364</t>
+  </si>
+  <si>
+    <t>10763405</t>
+  </si>
+  <si>
+    <t>Hanke, Stefan and Wessel, Lauri</t>
+  </si>
+  <si>
+    <t>Designing for Digital Transformation in a Society of Smartness: Conceptual Cornerstones, Design Implications, and a Road Ahead</t>
+  </si>
+  <si>
+    <t>Information system (IS) researchers play a pivotal role as change agents, driving positive societal transformation and addressing "grand challenges." Designing for Digital Transformation in a Society of Smartness explores and expands the literature on digital transformation (DT), focusing on how IS research can conceptualize and tackle the design of IS artifacts in response to these complex challenges. The authors conceptualize DT as transformations of smart service systems (SSSs) due to the widespread use of smart technologies by individuals. The monograph further develops this literature toward a more sociological understanding of the practices within which individuals interact with smart technologies in their everyday lives. Based on these cornerstones, the authors provide specific suggestions for IS design of DT at a societal scale and contribute to research about DT, SSS, and IS design, respectively.</t>
+  </si>
+  <si>
+    <t>9781638284710</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10763405</t>
+  </si>
+  <si>
+    <t>9301466</t>
+  </si>
+  <si>
+    <t>Barni, Mauro and Tondi, Benedetta</t>
+  </si>
+  <si>
+    <t>Theoretical Foundations of Adversarial Binary Detection</t>
+  </si>
+  <si>
+    <t>Binary detection is a ubiquitous problem in virtually all branches of science and technology. In many cases, binary detection must be carried out in a setting wherein the presence of an adversary aiming at inducing a wrong decision cannot be ruled out. Applications include network monitoring, spam filtering, multimedia forensics, video surveillance and biometric authentication to name but a few. In these cases, the attack is carried out at the time of testing. With the advent of widespread machine learning tools, the attacker can act during the learning phase, making it harder to detect. The main idea behind adversarial detection theory is to cast the detection problem into a game-theoretic framework. This allows the goals and the actions available to the two contenders to be rigorously defined. In this monograph, the authors address several variants of a general adversarial binary detection problem, depending on the knowledge available to the Defender and the Attacker of the statistical characterization of a system. They lead the reader through the considerations and solutions under two hypotheses, using a framework that can be adopted in many applications. This monograph, aimed at students, researchers and practitioners working in the application areas who want an accessible introduction to the theory behind Adversarial Binary Detection and the possible solutions to their particular problem.</t>
+  </si>
+  <si>
+    <t>9781680837650</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9301466</t>
+  </si>
+  <si>
+    <t>10522568</t>
+  </si>
+  <si>
+    <t>Nowacki, Krzysztof and Twarożek, Mateusz</t>
+  </si>
+  <si>
+    <t>Salesforce CRM Administration Handbook: A comprehensive guide to administering, configuring, and customizing Salesforce CRM</t>
+  </si>
+  <si>
+    <t>Master the core concepts of Salesforce administration and gain a holistic understanding of the SF ecosystem that will also help you prepare for the Salesforce certification examKey FeaturesUnderstand Salesforce architecture and security modelIntegrate Flow Builder with other Salesforce components for seamless automationUnderstand how to create and manage approval workflows in SalesforcePurchase of the print or Kindle book includes a free PDF eBookBook DescriptionDo you aspire to be a successful Salesforce administrator or consultant? If yes, then this step-by-step guide is for you. Written by certified Salesforce professionals, the Salesforce CRM Administration Handbook will take you through the intricacies of Salesforce, covering objects, records, automation, and much more. Starting with an overview of the capabilities and limitations of Salesforce, you’ll progress toward a holistic understanding of system architecture with real-world examples, including workarounds that enable the successful completion of projects. As you delve deeper, you’ll learn about the fundamental concepts of a CRM system, its purpose, and the pivotal role of an administrator in the Salesforce lifecycle. You’ll also explore the basic structures of the entire Salesforce system and navigate confidently through the intricacies of security, automation, and reporting in the Sales/Service Cloud. By the end of this book, you’ll have the confidence you need to navigate Salesforce’s backend seamlessly, implement configuration changes effortlessly, and communicate fluently in Salesforce terminology.What you will learnDiscover strategies to stay up-to-date with Salesforce releasesIntegrate Salesforce products seamlessly to meet diverse business needsExplore Sales and Service Cloud and its transformative impact on sales and customer support operationsMaster opportunity management for successful deal closures and pipeline forecastingUnderstand Salesforce Orgs, managing users, settings, and customizationExplore data import and export methods and data mappingDiscover best practices, mock tests, and valuable tips and tricks to prepare for Salesforce certificationWho this book is forThis book is for aspiring Salesforce administrators and consultants looking to build a solid foundation in Salesforce products, system setup, and customization as well as advance their careers within the Salesforce ecosystem. It’s also a great resource for those preparing to take the Salesforce ADM 201 certification exam, as it serves as an excellent supplement to the existing learning materials.</t>
+  </si>
+  <si>
+    <t>9781835081860</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522568</t>
+  </si>
+  <si>
+    <t>8620670</t>
+  </si>
+  <si>
+    <t>Mitra, Bhaskar and Craswell, Nick</t>
+  </si>
+  <si>
+    <t>An Introduction to Neural Information Retrieval</t>
+  </si>
+  <si>
+    <t>Neural models have been employed in many Information Retrieval scenarios, including ad-hoc retrieval, recommender systems, multi-media search, and even conversational systems that generate answers in response to natural language questions. An Introduction to Neural Information Retrieval provides a tutorial introduction to neural methods for ranking documents in response to a query, an important IR task. The monograph provides a complete picture of neural information retrieval techniques that culminate in supervised neural learning to rank models including deep neural network architectures that are trained end-to-end for ranking tasks. In reaching this point, the authors cover all the important topics, including the learning to rank framework and an overview of deep neural networks. This monograph provides an accessible, yet comprehensive, overview of the state-of-the-art of Neural Information Retrieval.</t>
+  </si>
+  <si>
+    <t>10.1561/1500000061</t>
+  </si>
+  <si>
+    <t>9781680835335</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8620670</t>
+  </si>
+  <si>
+    <t>10769376</t>
+  </si>
+  <si>
+    <t>Kok, Arjuna Sky</t>
+  </si>
+  <si>
+    <t>Hands-On Blockchain for Python Developers: Empowering Python developers in the world of blockchain and smart contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write popular DeFi and NFT smart contracts with Vyper, a Pythonic programming language, and integrate blockchain with real-world applications using Python Key FeaturesUse the world's easiest programming language to build web3 applicationsWrite common smart contracts like decentralized exchanges, NFT marketplaces, and lending applicationsUnlock deeper levels of insights with technologies relating to blockchain, such as IPFS and Layer 2Purchase of the print or Kindle book includes a free PDF eBookBook DescriptionWe are living in the age of decentralized fi nance and NFTs. People swap tokens on Uniswap, borrow assets from Aave, send payments with stablecoins, trade art NFTs on OpenSea, and more. To build applications of this kind, you need to know how to write smart contracts. This comprehensive guide will help you explore all the features of Vyper, a programming language designed to write smart contracts. You’ll also explore the web3.py library. As you progress, you’ll learn how to connect to smart contracts, read values, and create transactions. To make sure your foundational knowledge is strong enough, the book guides you through Ape Framework, which can help you create decentralized exchanges, NFT marketplaces, voting applications, and more. Each project provides invaluable insights and hands-on experience, equipping you with the skills you need to build real-world blockchain solutions. By the end of this book, you’ll be well versed with writing common Web3 applications such as a decentralized exchange, an NFT marketplace, a voting application, and more.What you will learnUnderstand blockchain and smart contractsLearn how to write smart contracts with VyperExplore how to use the web3.py library and Ape FrameworkDiscover related technologies such as Layer 2 and IPFSGain a step-by-step guide to writing an automated market maker (AMM) decentralized exchange (DEX) smart contractBuild innovative, interactive, and token-gated Web3 NFT applicationsWho this book is forThis blockchain book is for developers interested in understanding blockchain and smart contracts. It is suitable for both technology enthusiasts looking to explore blockchain technology and programmers who aspire to become smart contract engineers. Basic knowledge of GNU/Linux and Python programming is mandatory to get started with this book. </t>
+  </si>
+  <si>
+    <t>9781805121688</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769376</t>
+  </si>
+  <si>
+    <t>10163683</t>
+  </si>
+  <si>
+    <t>Shah, Zeeshan Jawed</t>
+  </si>
+  <si>
+    <t>Realistic Asset Creation with Adobe Substance 3D: Create materials, textures, filters, and 3D models using Substance 3D Painter, Designer, and Stager</t>
+  </si>
+  <si>
+    <t>Gain extensive, practical knowledge of 3D design with Adobe Substance 3D and learn to build a comprehensive portfolio of work with this interactive bookKey FeaturesFind out how to use Adobe Substance 3D swiftly and with little prior knowledgeUse a variety of interactive projects to get familiar with the fundamentalsCreate better career prospects for yourself by mastering 3D design with a single comprehensive guideBook DescriptionAdobe Substance 3D is a comprehensive suite complete with everything an artist needs to create stunning 3D digital materials. Getting a grip on the ecosystem of apps can be challenging for beginners, which is where Realistic Asset Creation with Adobe Substance 3D comes in! This practical guide doesn't bombard you with reams of textual information. Instead, you get an interactive, project-based book that’ll help you gain sound knowledge of Adobe Substance 3D and set you on the right path toward a career in 3D design. You’ll start off with the rudiments of Adobe Substance 3D Painter, which will enable you to acquire the skills needed to work with layers, masks, shelves, textures, and more. Next, you’ll move on to Adobe Substance 3D Designer and become well-acquainted with this node-based design tool as you progress through the chapters. The final section is devoted to Adobe Substance 3D Stager, which teaches you to build complex 3D scenes and visualize your edits in real time. By the end of this Adobe book, you’ll have gained a solid understanding of Adobe Substance 3D and developed the skills to build a comprehensive portfolio of work, setting you up for a lucrative career in 3D design.What you will learnDiscover Substance 3D Painter, Designer, and Stager through easy projectsAssemble 3D scenes and set up assets, materials, lights, and camerasExplore the innovative 3D assets library and learn how to digitize your 3D assetsTexture your 3D assets with advanced brushes and Smart MaterialsUse and blend a variety of nodes in Adobe Substance 3D DesignerCreate and export materials using Adobe Substance 3D SamplerWho this book is forThis book is for game designers, 3D generalists, and design students. If you're looking to get started in your 3D career or planning to join 3D generation, then you'll find this book useful. The book assumes very little to no 3D design knowledge. A bit of understanding of the history, functionality, and purpose of the Adobe Substance 3D package is presumed but is not mandatory; however, you must know how to work with Adobe Photoshop.</t>
+  </si>
+  <si>
+    <t>9781803240206</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163683</t>
+  </si>
+  <si>
+    <t>9785928</t>
+  </si>
+  <si>
+    <t>Feng, Oliver Y. and Venkataramanan, Ramji and Rush, Cynthia and Samworth, Richard J.</t>
+  </si>
+  <si>
+    <t>A Unifying Tutorial on Approximate Message Passing</t>
+  </si>
+  <si>
+    <t>Over the last decade, Approximate Message Passing (AMP) algorithms have become extremely popular in various structured high-dimensional statistical problems. Many of the original ideas of AMP were developed in the physics and engineering literature and have recently been extended for use in computer science and machine learning. In this tutorial the authors give a comprehensive and rigorous introduction to what AMP can offer, as well as to unifying and formalizing the core concepts within the large body of recent work in the area. They lead the reader through the basic concepts of AMP before introducing the concept of low-rank matrix estimation. The authors conclude by covering generalized models. To complete the picture for researchers, proofs, technical remarks and mathematical background are also provided. This tutorial is an in depth introduction to Approximate Message Passing for students and researchers new to the topic.</t>
+  </si>
+  <si>
+    <t>9781638280057</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9785928</t>
+  </si>
+  <si>
+    <t>8860686</t>
+  </si>
+  <si>
+    <t>Broge, Jean</t>
+  </si>
+  <si>
+    <t>So You Want to Design Aircraft: Manufacturing with Composites</t>
+  </si>
+  <si>
+    <t>i-xiv</t>
+  </si>
+  <si>
+    <t>9780768091731</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8860686</t>
+  </si>
+  <si>
+    <t>10948545</t>
+  </si>
+  <si>
+    <t>Quantum Machine Learning and Optimisation in Finance: Drive financial innovation with quantum-powered algorithms and optimization strategies</t>
+  </si>
+  <si>
+    <t>Get a detailed introduction to quantum computing and quantum machine learning, with a focus on finance-related applications in this second editionKey FeaturesExplore updated quantum algorithms that enhance financial modeling, including advanced QML techniquesGain insights into new hybrid quantum-classical optimization strategies for NISQ systemsDiscover expanded practical applications tackling real-world financial challengesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionAs quantum machine learning (QML) evolves, this second edition builds upon the foundation of the first, providing a hands-on guide to applying advanced QML algorithms for finance using noisy intermediate-scale quantum (NISQ) systems. This edition introduces new chapters exploring quantum kernels, advanced optimization methods, and quantum neural networks, expanding beyond foundational algorithms like Shor's and Grover's to focus on real-world applications. Hybrid quantum-classical protocols remain a core focus, enabling readers to effectively combine the strengths of quantum and classical computing. Written by Antoine Jacquier, a leading researcher in stochastic analysis, and Oleksiy Kondratyev, a Quant of the Year awardee, this edition provides a hardware-agnostic perspective, balancing analog and digital quantum computing insights. Updated examples and case studies provide actionable insights into leveraging quantum for finance. By the end of this book, you’ll have gained a solid understanding of the latest developments in quantum computing for finance, enabling you to solve complex challenges and drive innovation in your work.What you will learnFamiliarize yourself with expanded analog and digital quantum computing principlesSolve NP-hard optimization problems with updated quantum annealing methodsBuild and train advanced quantum neural networks for financeLeverage new quantum kernels for enhanced data representationOptimize processes using expanded variational algorithmsExplore advanced symmetric encryption techniques on quantum systemsWho this book is forThis second edition is ideal for quants, developers, data scientists, researchers, and students in quantitative finance, as well as AI/ML experts. Prior knowledge of quantum mechanics is not required. With new content on advanced QML applications and optimization techniques, this book offers accessible yet rigorous mathematical insights for solving financial challenges.</t>
+  </si>
+  <si>
+    <t>9781836209607</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10948545</t>
+  </si>
+  <si>
+    <t>10750530</t>
+  </si>
+  <si>
+    <t>Bandi, Nymisha and Cohen, Maxime C. and Ray, Saibal</t>
+  </si>
+  <si>
+    <t>Behavioral Retail Operations: Tactics to Win Customers</t>
+  </si>
+  <si>
+    <t>In today’s fast-paced retail world, consumers face an overwhelming array of product choices, and retailers are constantly seeking new ways to steer their purchasing decisions. Behavioral Retail Operations: Tactics to Win Customers delves into the intricate relationship between consumer psychology and strategic retail tactics. Drawing on decades of research, the authors explore how factors such as pricing, promotions, and store layout influence shopper behavior in both physical and online settings. From understanding the subtle psychological effects of price framing to uncovering how sensory elements like music and color shape the shopping experience, this monograph provides a comprehensive look at the tools retailers use to maximize profitability. Offering a deep dive into the art of influencing consumer behavior, this monograph is essential for both researchers and practitioners aiming to bridge the gap between theory and real-world retail strategy.</t>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+  </si>
+  <si>
+    <t>9781638284376</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10750530</t>
+  </si>
+  <si>
+    <t>10557550</t>
+  </si>
+  <si>
+    <t>1-185</t>
+  </si>
+  <si>
+    <t>This specification is identical in content to a base document developed by the Spatial Web Foundation and provided to the IEEE P2874 Spatial Web, Architecture and Governance Working Group for standardization</t>
+  </si>
+  <si>
+    <t>IEEE Standards;Modeling;Web design;Web services;IP networks;Protocols;Hyperspace Transaction Protocol;HSTP;Spatial Web;Hyperspace Modelling Language;HSML;Universal Domain Graph;UDG;Spatial Web Identifier;SWID;W3C Decentralized Identifier (DID);Verifiable Credentials</t>
+  </si>
+  <si>
+    <t>IEEE P2874/D3.1, June 2024</t>
+  </si>
+  <si>
+    <t>IEEE Draft Standard for Spatial Web Protocol, Architecture and Governance</t>
+  </si>
+  <si>
+    <t>10162130</t>
+  </si>
+  <si>
+    <t>Masood, Adnan and Sherif, Ahmed</t>
+  </si>
+  <si>
+    <t>Automated Machine Learning: Hyperparameter optimization, neural architecture search, and algorithm selection with cloud platforms</t>
+  </si>
+  <si>
+    <t>Get to grips with automated machine learning and adopt a hands-on approach to AutoML implementation and associated methodologiesKey FeaturesGet up to speed with AutoML using OSS, Azure, AWS, GCP, or any platform of your choiceEliminate mundane tasks in data engineering and reduce human errors in machine learning modelsFind out how you can make machine learning accessible for all users to promote decentralized processesBook DescriptionEvery machine learning engineer deals with systems that have hyperparameters, and the most basic task in automated machine learning (AutoML) is to automatically set these hyperparameters to optimize performance. The latest deep neural networks have a wide range of hyperparameters for their architecture, regularization, and optimization, which can be customized effectively to save time and effort. This book reviews the underlying techniques of automated feature engineering, model and hyperparameter tuning, gradient-based approaches, and much more. You'll discover different ways of implementing these techniques in open source tools and then learn to use enterprise tools for implementing AutoML in three major cloud service providers: Microsoft Azure, Amazon Web Services (AWS), and Google Cloud Platform. As you progress, you’ll explore the features of cloud AutoML platforms by building machine learning models using AutoML. The book will also show you how to develop accurate models by automating time-consuming and repetitive tasks in the machine learning development lifecycle. By the end of this machine learning book, you’ll be able to build and deploy AutoML models that are not only accurate, but also increase productivity, allow interoperability, and minimize feature engineering tasks.What you will learnExplore AutoML fundamentals, underlying methods, and techniquesAssess AutoML aspects such as algorithm selection, auto featurization, and hyperparameter tuning in an applied scenarioFind out the difference between cloud and operations support systems (OSS)Implement AutoML in enterprise cloud to deploy ML models and pipelinesBuild explainable AutoML pipelines with transparencyUnderstand automated feature engineering and time series forecastingAutomate data science modeling tasks to implement ML solutions easily and focus on more complex problemsWho this book is forCitizen data scientists, machine learning developers, artificial intelligence enthusiasts, or anyone looking to automatically build machine learning models using the features offered by open source tools, Microsoft Azure Machine Learning, AWS, and Google Cloud Platform will find this book useful. Beginner-level knowledge of building ML models is required to get the best out of this book. Prior experience in using Enterprise cloud is beneficial.</t>
+  </si>
+  <si>
+    <t>9781800565524</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162130</t>
+  </si>
+  <si>
+    <t>8620668</t>
+  </si>
+  <si>
+    <t>Osa, Takayuki and Pajarinen, Joni and Neumann, Gerhard and Bagnell, J. Andrew and Abbeel, Pieter and Peters, Jan</t>
+  </si>
+  <si>
+    <t>An Algorithmic Perspective on Imitation Learning</t>
+  </si>
+  <si>
+    <t>As robots and other intelligent agents move from simple environments and problems to more complex, unstructured settings, manually programming their behavior has become increasingly challenging and expensive. Often, it is easier for a teacher to demonstrate a desired behavior rather than attempt to manually engineer it. This process of learning from demonstrations, and the study of algorithms to do so, is called imitation learning. An Algorithmic Perspective on Imitation Learning provides the reader with an introduction to imitation learning. It covers the underlying assumptions, approaches, and how they relate; the rich set of algorithms developed to tackle the problem; and advice on effective tools and implementation. An Algorithmic Perspective on Imitation Learning serves two audiences. First, it familiarizes machine learning experts with the challenges of imitation learning, particularly those arising in robotics, and the interesting theoretical and practical distinctions between it and more familiar frameworks like statistical supervised learning theory and reinforcement learning. Second, it provides roboticists and experts in applied artificial intelligence with a broader appreciation for the frameworks and tools available for imitation learning. It pays particular attention to the intimate connection between imitation learning approaches and those of structured prediction.</t>
+  </si>
+  <si>
+    <t>10.1561/2300000053</t>
+  </si>
+  <si>
+    <t>9781680834116</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8620668</t>
+  </si>
+  <si>
+    <t>9972997</t>
+  </si>
+  <si>
+    <t>Gan, Zhe and Li, Linjie and Li, Chunyuan and Wang, Lijuan and Liu, Zicheng and Gao, Jianfeng</t>
+  </si>
+  <si>
+    <t>Vision-Language Pre-Training: Basics, Recent Advances, and Future Trends</t>
+  </si>
+  <si>
+    <t>Humans perceive the world through many channels, such as images viewed by the eyes, or voices heard by the ears. Though any individual channel might be incomplete or noisy, humans can naturally align and fuse information collected from multiple channels in order to grasp the key concepts needed for a better understanding of the world. One of the core aspirations in Artificial Intelligence (AI) is to develop algorithms that endow computers with an ability to effectively learn from multimodal (or, multi-channel) data. This data is similar to sights and sounds attained from vision and language that help humans make sense of the world around us. For example, computers could mimic this ability by searching the most relevant images to a text query (or vice versa), and by describing the content of an image using natural language. Vision-and-Language (VL), a popular research area that sits at the nexus of Computer Vision and Natural Language Processing (NLP), aims to achieve this goal. This monograph surveys vision-language pre-training (VLP) methods for multimodal intelligence that have been developed in the last few years. Approaches are grouped into three categories: (i) VLP for image-text tasks, such as image captioning, image-text retrieval, visual question answering, and visual grounding; (ii) VLP for core computer vision tasks, such as (open-set) image classification, object detection, and segmentation; and (iii) VLP for video-text tasks, such as video captioning, video-text retrieval, and video question answering. For each category, a comprehensive review of state-of-the-art methods is presented, and the progress that has been made and challenges still being faced are discussed, using specific systems and models as case studies. In addition, for each category, advanced topics being actively explored in the research community are presented, such as big foundation models, unified modeling, in-context few-shot learning, knowledge, robustness, and computer vision in the wild, to name a few.</t>
+  </si>
+  <si>
+    <t>9781638281337</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9972997</t>
+  </si>
+  <si>
+    <t>10887316</t>
+  </si>
+  <si>
+    <t>Huang, Tianrui and Cao, Pu and Yang, Lu and Liu, Chun and Hu, Mengjie and Liu, Zhiwei and Song, Qing</t>
+  </si>
+  <si>
+    <t>Diffusion-based image editing involves both preserving the source image content and generating new content or applying modifications. Although current editing approaches have made improvements under text guidance, they have two key drawbacks: overemphasis on retaining original image info, neglecting editability and text alignment, and inability to handle both structure-consistent and non-rigid editing tasks. In this paper, we propose a zero-shot image editing method, named Enhance Editability for text-based image Editing via Efficient CLIP guidance (E4C), which presents an innovative adaptive feature sharing mechanism to enable multi-task editing. Additionally, a novel random gateway mechanism is designed to efficiently introduce CLIP guidance into the multi-step sampling of diffusion, achieving high congruence between editing results and target text. Comprehensive quantitative and qualitative experiments demonstrate that our method effectively resolves the text alignment issues prevalent in existing methods while maintaining the fidelity to the source image, and performs well across a wide range of editing tasks.</t>
+  </si>
+  <si>
+    <t>Pipelines;Noise;Diffusion models;Training;Shape;Noise reduction;Layout;Circuits and systems;Image synthesis;Electronic mail;diffusion model text-based image editing CLIP guidance</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3542180</t>
+  </si>
+  <si>
+    <t>E4C: Enhance Editability for Text-Based Image Editing by Harnessing Efficient CLIP Guidance</t>
+  </si>
+  <si>
+    <t>10163151</t>
+  </si>
+  <si>
+    <t>Arvin Lat, Joshua</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineering on AWS: Build, scale, and secure machine learning systems and MLOps pipelines in production</t>
+  </si>
+  <si>
+    <t>Work seamlessly with production-ready machine learning systems and pipelines on AWS by addressing key pain points encountered in the ML life cycleKey FeaturesGain practical knowledge of managing ML workloads on AWS using Amazon SageMaker, Amazon EKS, and moreUse container and serverless services to solve a variety of ML engineering requirementsDesign, build, and secure automated MLOps pipelines and workflows on AWSBook DescriptionThere is a growing need for professionals with experience in working on machine learning (ML) engineering requirements as well as those with knowledge of automating complex MLOps pipelines in the cloud. This book explores a variety of AWS services, such as Amazon Elastic Kubernetes Service, AWS Glue, AWS Lambda, Amazon Redshift, and AWS Lake Formation, which ML practitioners can leverage to meet various data engineering and ML engineering requirements in production. This machine learning book covers the essential concepts as well as step-by-step instructions that are designed to help you get a solid understanding of how to manage and secure ML workloads in the cloud. As you progress through the chapters, you’ll discover how to use several container and serverless solutions when training and deploying TensorFlow and PyTorch deep learning models on AWS. You’ll also delve into proven cost optimization techniques as well as data privacy and model privacy preservation strategies in detail as you explore best practices when using each AWS. By the end of this AWS book, you'll be able to build, scale, and secure your own ML systems and pipelines, which will give you the experience and confidence needed to architect custom solutions using a variety of AWS services for ML engineering requirements.What you will learnFind out how to train and deploy TensorFlow and PyTorch models on AWSUse containers and serverless services for ML engineering requirementsDiscover how to set up a serverless data warehouse and data lake on AWSBuild automated end-to-end MLOps pipelines using a variety of servicesUse AWS Glue DataBrew and SageMaker Data Wrangler for data engineeringExplore different solutions for deploying deep learning models on AWSApply cost optimization techniques to ML environments and systemsPreserve data privacy and model privacy using a variety of techniquesWho this book is forThis book is for machine learning engineers, data scientists, and AWS cloud engineers interested in working on production data engineering, machine learning engineering, and MLOps requirements using a variety of AWS services such as Amazon EC2, Amazon Elastic Kubernetes Service (EKS), Amazon SageMaker, AWS Glue, Amazon Redshift, AWS Lake Formation, and AWS Lambda -- all you need is an AWS account to get started. Prior knowledge of AWS, machine learning, and the Python programming language will help you to grasp the concepts covered in this book more effectively.</t>
+  </si>
+  <si>
+    <t>9781803231389</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163151</t>
+  </si>
+  <si>
+    <t>10162988</t>
+  </si>
+  <si>
+    <t>Lyon, Bryan and Tora, Matt</t>
+  </si>
+  <si>
+    <t>Exploring Deepfakes: Deploy powerful AI techniques for face replacement and more with this comprehensive guide</t>
+  </si>
+  <si>
+    <t>Master the innovative world of deepfakes and generative AI for face replacement with this full-color guide Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesUnderstand what deepfakes are, their history, and how to use the technology ethicallyGet well-versed with the workflow and processes involved to create your own deepfakesLearn how to apply the lessons and techniques of deepfakes to your own problemsBook DescriptionApplying Deepfakes will allow you to tackle a wide range of scenarios creatively. Learning from experienced authors will help you to intuitively understand what is going on inside the model. You’ll learn what deepfakes are and what makes them different from other machine learning techniques, and understand the entire process from beginning to end, from finding faces to preparing them, training the model, and performing the final swap. We’ll discuss various uses for face replacement before we begin building our own pipeline. Spending some extra time thinking about how you collect your input data can make a huge difference to the quality of the final video. We look at the importance of this data and guide you with simple concepts to understand what your data needs to really be successful. No discussion of deepfakes can avoid discussing the controversial, unethical uses for which the technology initially became known. We’ll go over some potential issues, and talk about the value that deepfakes can bring to a variety of educational and artistic use cases, from video game avatars to filmmaking. By the end of the book, you’ll understand what deepfakes are, how they work at a fundamental level, and how to apply those techniques to your own needs.What you will learnGain a clear understanding of deepfakes and their creationUnderstand the risks of deepfakes and how to mitigate themCollect efficient data to create successful deepfakesGet familiar with the deepfakes workflow and its stepsExplore the application of deepfakes methods to your own generative needsImprove results by augmenting data and avoiding overtrainingExamine the future of deepfakes and other generative AIsUse generative AIs to increase video content resolutionWho this book is forThis book is for AI developers, data scientists, and anyone looking to learn more about deepfakes or techniques and technologies from Deepfakes to help them generate new image data. Working knowledge of Python programming language and basic familiarity with OpenCV, Pillow, Pytorch, or Tensorflow is recommended to get the most out of the book.</t>
+  </si>
+  <si>
+    <t>9781801817844</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162988</t>
+  </si>
+  <si>
+    <t>10906539</t>
+  </si>
+  <si>
+    <t>Mashiko, Kazuma and Kawamoto, Yuichi and Kato, Nei and Yoshida, Kohei and Ariyoshi, Masayuki</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Space–air–ground integrated networks (SAGIN) have attracted considerable attention owing to their capability extending telecommunication coverage via satellite communication. They enhance the capacity and coverage of satellite communication systems using amplifying relays deployed in high-altitude platform stations (HAPS) in the air. Free-space optical (FSO) communication, which offers larger capacity compared to conventional radiofrequency (RF) communication, can enhance the capacity of SAGIN to meet the requirements of sixth-generation (6 G) systems. This study assumes a hybrid FSO/RF SAGIN, where high-capacity but atmospherically unstable FSO communications and low-capacity but atmospherically stable RF communications are used in a complementary manner in the satellite-HAPS-ground link. For the SAGIN coverage area to expand, the transmission capacity of the system needs to be further improved. Therefore, efficient use of the limited RF link frequency bandwidth is crucial, and the satellite and HAPS must cooperate to share and meet ground traffic requirements by controlling the areas they each cover. In addition, HAPS placement significantly impacts the spectral efficiency of the system because the positional relationship between the satellite and HAPS affects the transmission capacity. Therefore, this study proposes a combined control method for optimizing HAPS placement and coverage area of the satellite and HAPS. Furthermore, a solution space reduction method is incorporated into the proposed method for efficient exploration of the optimal control parameters. The solution exploration efficiency and data transmission performance using the proposed method are evaluated through simulations.</t>
+  </si>
+  <si>
+    <t>Satellites;Low earth orbit satellites;Radio frequency;Satellite broadcasting;Atmospheric modeling;Relays;Spectral efficiency;Space-air-ground integrated networks;Downlink;Attenuation;Free-space optical (FSO) communication;high-altitude platform station (HAPS);space–air–ground integrated networks (SAGIN);spectral efficiency;6 G</t>
+  </si>
+  <si>
+    <t>10.1109/TVT.2025.3546335</t>
+  </si>
+  <si>
+    <t>Combined Control of Coverage Area and HAPS Deployment in Hybrid FSO/RF SAGIN</t>
+  </si>
+  <si>
+    <t>10949028</t>
+  </si>
+  <si>
+    <t>Kolodiazhnyi, Kirill</t>
+  </si>
+  <si>
+    <t>Hands-On Machine Learning with C++: Build, train, and deploy end-to-end machine learning and deep learning pipelines</t>
+  </si>
+  <si>
+    <t>Apply supervised and unsupervised machine learning algorithms using C++ libraries, such as PyTorch C++ API, Flashlight, Blaze, mlpack, and dlib using real-world examples and datasetsKey FeaturesFamiliarize yourself with data processing, performance measuring, and model selection using various C++ librariesImplement practical machine learning and deep learning techniques to build smart modelsDeploy machine learning models to work on mobile and embedded devicesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionWritten by a seasoned software engineer with several years of industry experience, this book will teach you the basics of machine learning (ML) and show you how to use C++ libraries, along with helping you create supervised and unsupervised ML models. You’ll gain hands-on experience in tuning and optimizing a model for various use cases, enabling you to efficiently select models and measure performance. The chapters cover techniques such as product recommendations, ensemble learning, anomaly detection, sentiment analysis, and object recognition using modern C++ libraries. You’ll also learn how to overcome production and deployment challenges on mobile platforms, and see how the ONNX model format can help you accomplish these tasks. This new edition has been updated with key topics such as sentiment analysis implementation using transfer learning and transformer-based models, as well as tracking and visualizing ML experiments with MLflow. An additional section shows you how to use Optuna for hyperparameter selection. The section on model deployment into mobile platform now includes a detailed explanation of real-time object detection for Android with C++. By the end of this C++ book, you’ll have real-world machine learning and C++ knowledge, as well as the skills to use C++ to build powerful ML systems.What you will learnEmploy key machine learning algorithms using various C++ librariesLoad and pre-process different data types to suitable C++ data structuresFind out how to identify the best parameters for a machine learning modelUse anomaly detection for filtering user dataApply collaborative filtering to manage dynamic user preferencesUtilize C++ libraries and APIs to manage model structures and parametersImplement C++ code for object detection using a modern neural networkWho this book is forThis book is for beginners looking to explore machine learning algorithms and techniques using C++. This book is also valuable for data analysts, scientists, and developers who want to implement machine learning models in production. Working knowledge of C++ is needed to make the most of this book.</t>
+  </si>
+  <si>
+    <t>9781805126140</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10949028</t>
+  </si>
+  <si>
+    <t>10818737</t>
+  </si>
+  <si>
+    <t>Zhao, Haibin and Pal, Priyanjana and Hefenbrock, Michael and Wang, Yuhong and Beigl, Michael and Tahoori, Mehdi B.</t>
+  </si>
+  <si>
+    <t>Printed electronics (PE) is an additive fabrication technology for manufacturing electronic circuits which not only allows for a highly flexible printing of arbitrary circuit patterns, but also produce soft, non-toxic, and degradable electronics at an extremely low cost. These properties are unmatched by silicon based electronics, making PE an enabler of new application domains, e.g., fast moving consumer goods, wearables, and disposable healthcare devices. A particularly promising class of circuits in this technology is the printed analog neuromorphic circuits, offering efficient and highly tailored computational functionalities. In this work, we leverage the highly flexible fabrication process of PE to address the bottleneck of PE, i.e., the large feature sizes and low device counts. This issue is crucial, as it impairs the integration of printed circuits into target applications with limited footprint, such as smart band aids. We also propose an evolutionary algorithm (EA) to improve the circuit compactness through circuit architecture optimization. As baseline, we compare the proposed EA method with a state-of-the-art pruning method and a modified area-aware pruning method. All of them are able to optimize circuit architecture alongside the component values of printed neuromorphic circuits. Experimental simulation reveals that the proposed EA approach can effectively achieve compact circuits and outperform the pruning method by 3.1× lower area with no loss of accuracy. As a byproduct, the power is reduced by 3.0×, paving the way to energy-harvested printed systems.</t>
+  </si>
+  <si>
+    <t>Circuits;Training;Computer architecture;Substrates;Ink jet printing;Wearable devices;Three-dimensional printing;Neuromorphic engineering;Nanorods;Fabrication;printed electronics;neuromorphic computing;compact circuit design;evolutionary algorithm;gradient-based optimization;machine learning;neural architecture search</t>
+  </si>
+  <si>
+    <t>10.1109/TCAD.2024.3524357</t>
+  </si>
+  <si>
+    <t>Neural Evolutionary Architecture Search for Compact Printed Analog Neuromorphic Circuits</t>
+  </si>
+  <si>
+    <t>9051776</t>
+  </si>
+  <si>
+    <t>Naesseth, Christian A. and Lindsten, Fredrik and Schön, Thomas B.</t>
+  </si>
+  <si>
+    <t>Elements of Sequential Monte Carlo</t>
+  </si>
+  <si>
+    <t>A key strategy in machine learning is to break down a problem into smaller and more manageable parts, then process data or unknown variables recursively. Sequential Monte Carlo (SMC) is a technique for solving statistical inference problems recursively. Over the last 20 years, SMC has been developed to enabled inference in increasingly complex and challenging models in Signal Processing and Statistics. This monograph shows how the powerful technique can be applied to machine learning problems such as probabilistic programming, variational inference and inference evaluation to name a few. Written in a tutorial style, Elements of Sequential Monte Carlo introduces the basics of SMC, discusses practical issues, and reviews theoretical results before guiding the reader through a series of advanced topics to give a complete overview of the topic and its application to machine learning problems. This monograph provides an accessible treatment for researchers of a topic that has recently gained significant interest in the machine learning community.</t>
+  </si>
+  <si>
+    <t>9781680836332</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9051776</t>
+  </si>
+  <si>
+    <t>10910224</t>
+  </si>
+  <si>
+    <t>Zhang, Li and Li, Dong and Zhong, Yan and Zhu, Jiaying and Wang, Rujing and Wu, Xingyu and Wang, Xue and Liu, Liu</t>
+  </si>
+  <si>
+    <t>Image Forgery Detection and Localization is rapidly advancing in the field of computer vision. Most methods locate forged regions in the form of segmentation and subsequently perform detection, facing challenges such as false detections (i.e., FPs) and inaccurate boundaries. In this work, we suggest rethinking the Image Forgery Detection and Localization (IFDL) task from a regression perspective and propose the CatmullRom Splines-based Regression Network (CSR-Net) to address these issues. Specifically, we first design an adaptive CutmullRom splines fitting scheme to predict coarse forged regions. Subsequently, we develop a novel rescoring mechanism that filters out samples with no response in both the classification and instance branches to reduce false positives. Besides, a learnable texture extraction module decouples horizontal and vertical forgery features, extracting more robust contour representations to further refine boundaries and suppress false detections. Compared to segmentation-based methods our method is simple but effective due to the unnecessity of post-processing. Extensive experiments conducted on several challenging benchmarks demonstrate that our method outperforms state-of-the-art methods qualitatively and quantitatively. Particularly, CSR-Net achieves optimal performance on three real-world datasets, indicating the applicability of our method to real scenarios such as social media and multi-tampered regions.</t>
+  </si>
+  <si>
+    <t>Splines (mathematics);Forgery;Location awareness;Electronic mail;Image segmentation;Accuracy;Shape;Process control;Interpolation;Feature extraction;Image forgery;detection and localization;catmullrom splines;regression methods</t>
+  </si>
+  <si>
+    <t>10.1109/TETCI.2025.3543837</t>
+  </si>
+  <si>
+    <t>2471-285X</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Emerging Topics in Computational Intelligence</t>
+  </si>
+  <si>
+    <t>Rethinking Image Forgery Detection and Localization via Regression Perspective</t>
+  </si>
+  <si>
+    <t>9869179</t>
+  </si>
+  <si>
+    <t>Guo, Jing-Ming and Sankarasrinivasan, S</t>
+  </si>
+  <si>
+    <t>2022 IEEE International Conference on Consumer Electronics - Taiwan</t>
+  </si>
+  <si>
+    <t>1-644</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Integrated circuits;Sockets;Inspection;Estimation;Transforms;Laser beams;Surface emitting lasers</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE-Taiwan55306.2022.9869179</t>
+  </si>
+  <si>
+    <t>2575-8284</t>
+  </si>
+  <si>
+    <t>10769386</t>
+  </si>
+  <si>
+    <t>Hornbeek, Marc and Wakeman, Dan</t>
+  </si>
+  <si>
+    <t>Continuous Testing, Quality, Security, and Feedback: Essential strategies and secure practices for DevOps, DevSecOps, and SRE transformations</t>
+  </si>
+  <si>
+    <t>A step-by-step guide to developing high-quality, secure, and agile software using continuous testing and feedback strategies and toolsKey FeaturesGain insights from real-world use cases and experiences of an IEEE Outstanding Engineer and DevOps consultantImplement best practices for continuous testing strategies and tools, test designs, environments, results, and metricsLeverage AI/ML, implementation patterns, and performance measurement during software developmentBook DescriptionOrganizations struggle to integrate and execute continuous testing, quality, security, and feedback practices into their DevOps, DevSecOps, and SRE approaches to achieve successful digital transformations. This book addresses these challenges by embedding these critical practices into your software development lifecycle. Beginning with the foundational concepts, the book progresses to practical applications, helping you understand why these practices are crucial in today’s fast-paced software development landscape. You’ll discover continuous strategies to avoid the common pitfalls and streamline the quality, security, and feedback mechanisms within software development processes. You’ll explore planning, discovery, and benchmarking through systematic engineering approaches, tailored to organizational needs. You’ll learn how to select toolchains, integrating AI/ML for resilience, and implement real-world case studies to achieve operational excellence. You’ll learn how to create strategic roadmaps, aligned with digital transformation goals, and measure outcomes recognized by DORA. You’ll explore emerging trends that are reshaping continuous practices in software development. By the end of this book, you’ll have the knowledge and skills to drive continuous improvement across the software development lifecycle.What you will learnEnsure continuous testing, quality, security, and feedback in DevOps, DevSecOps, and SRE practicesApply capability maturity models, set goals, conduct discoveries, and set benchmarks for digital transformationsImplement and assess continuous improvement strategies with various tools and frameworksAvoid pitfalls and enhance user experience with gap assessments, value stream management, and roadmapsAdhere to proven engineering practices for software delivery and operationsStay on top of emerging trends in AI/ML and continuous improvementWho this book is forThis book is for software engineers, DevOps engineers, DevSecOps engineers, site reliability engineers, testers, QA professionals, and enterprise leaders looking to implement continuous testing, quality, security, and feedback for achieving efficiency, reliability, and success in digital transformations. Basic knowledge and experience in software development, testing, system design and system operations is a must.</t>
+  </si>
+  <si>
+    <t>9781835085219</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769386</t>
   </si>
 </sst>
 </file>
@@ -448,7 +2587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +2601,3215 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>186</v>
+      </c>
+      <c r="R22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="s">
+        <v>282</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" t="s">
+        <v>295</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>301</v>
+      </c>
+      <c r="R40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" t="s">
+        <v>305</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" t="s">
+        <v>307</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="P46" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" t="s">
+        <v>348</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="s">
+        <v>357</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="s">
+        <v>372</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>378</v>
+      </c>
+      <c r="H51" t="s">
+        <v>379</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>383</v>
+      </c>
+      <c r="R51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>387</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>399</v>
+      </c>
+      <c r="R53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>407</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D55" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="s">
+        <v>47</v>
+      </c>
+      <c r="N55" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>413</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>414</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" t="s">
+        <v>416</v>
+      </c>
+      <c r="H56" t="s">
+        <v>417</v>
+      </c>
+      <c r="I56" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" t="s">
+        <v>419</v>
+      </c>
+      <c r="K56" t="s">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>421</v>
+      </c>
+      <c r="R56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>428</v>
+      </c>
+      <c r="O57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58" t="s">
+        <v>432</v>
+      </c>
+      <c r="I58" t="s">
+        <v>433</v>
+      </c>
+      <c r="J58" t="s">
+        <v>434</v>
+      </c>
+      <c r="K58" t="s">
+        <v>435</v>
+      </c>
+      <c r="L58" t="s">
+        <v>436</v>
+      </c>
+      <c r="P58" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>438</v>
+      </c>
+      <c r="R58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>441</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s">
+        <v>442</v>
+      </c>
+      <c r="M59" t="s">
+        <v>47</v>
+      </c>
+      <c r="N59" t="s">
+        <v>443</v>
+      </c>
+      <c r="O59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>445</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" t="s">
+        <v>447</v>
+      </c>
+      <c r="J60" t="s">
+        <v>448</v>
+      </c>
+      <c r="K60" t="s">
+        <v>449</v>
+      </c>
+      <c r="L60" t="s">
+        <v>450</v>
+      </c>
+      <c r="P60" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>453</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>454</v>
+      </c>
+      <c r="D61" t="s">
+        <v>455</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>459</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>460</v>
+      </c>
+      <c r="D62" t="s">
+        <v>461</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" t="s">
+        <v>462</v>
+      </c>
+      <c r="M62" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" t="s">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>466</v>
+      </c>
+      <c r="D63" t="s">
+        <v>467</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>468</v>
+      </c>
+      <c r="I63" t="s">
+        <v>469</v>
+      </c>
+      <c r="J63" t="s">
+        <v>470</v>
+      </c>
+      <c r="K63" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>472</v>
+      </c>
+      <c r="R63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>474</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" t="s">
+        <v>476</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64" t="s">
+        <v>477</v>
+      </c>
+      <c r="M64" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>480</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>481</v>
+      </c>
+      <c r="D65" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
+        <v>483</v>
+      </c>
+      <c r="M65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" t="s">
+        <v>484</v>
+      </c>
+      <c r="O65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>486</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>487</v>
+      </c>
+      <c r="D66" t="s">
+        <v>488</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" t="s">
+        <v>490</v>
+      </c>
+      <c r="O66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>492</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" t="s">
+        <v>494</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>495</v>
+      </c>
+      <c r="M67" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" t="s">
+        <v>496</v>
+      </c>
+      <c r="O67" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>500</v>
+      </c>
+      <c r="E68" t="s">
+        <v>305</v>
+      </c>
+      <c r="I68" t="s">
+        <v>501</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>502</v>
+      </c>
+      <c r="O68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>504</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>505</v>
+      </c>
+      <c r="D69" t="s">
+        <v>506</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" t="s">
+        <v>507</v>
+      </c>
+      <c r="M69" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" t="s">
+        <v>508</v>
+      </c>
+      <c r="O69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>511</v>
+      </c>
+      <c r="D70" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" t="s">
+        <v>513</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>514</v>
+      </c>
+      <c r="O70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>516</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>517</v>
+      </c>
+      <c r="D71" t="s">
+        <v>518</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>519</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
+        <v>520</v>
+      </c>
+      <c r="O71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>523</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>524</v>
+      </c>
+      <c r="I72" t="s">
+        <v>525</v>
+      </c>
+      <c r="J72" t="s">
+        <v>526</v>
+      </c>
+      <c r="K72" t="s">
+        <v>527</v>
+      </c>
+      <c r="L72" t="s">
+        <v>528</v>
+      </c>
+      <c r="P72" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>531</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>532</v>
+      </c>
+      <c r="D73" t="s">
+        <v>533</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="I73" t="s">
+        <v>534</v>
+      </c>
+      <c r="M73" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" t="s">
+        <v>535</v>
+      </c>
+      <c r="O73" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>537</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>538</v>
+      </c>
+      <c r="D74" t="s">
+        <v>539</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>540</v>
+      </c>
+      <c r="M74" t="s">
+        <v>47</v>
+      </c>
+      <c r="N74" t="s">
+        <v>541</v>
+      </c>
+      <c r="O74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>543</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>544</v>
+      </c>
+      <c r="D75" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>546</v>
+      </c>
+      <c r="J75" t="s">
+        <v>547</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
+        <v>548</v>
+      </c>
+      <c r="O75" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>550</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>551</v>
+      </c>
+      <c r="D76" t="s">
+        <v>552</v>
+      </c>
+      <c r="E76" t="s">
+        <v>348</v>
+      </c>
+      <c r="I76" t="s">
+        <v>553</v>
+      </c>
+      <c r="M76" t="s">
+        <v>282</v>
+      </c>
+      <c r="N76" t="s">
+        <v>554</v>
+      </c>
+      <c r="O76" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>556</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77" t="s">
+        <v>558</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>559</v>
+      </c>
+      <c r="J77" t="s">
+        <v>560</v>
+      </c>
+      <c r="M77" t="s">
+        <v>561</v>
+      </c>
+      <c r="N77" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>564</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>565</v>
+      </c>
+      <c r="D78" t="s">
+        <v>566</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
+        <v>568</v>
+      </c>
+      <c r="O78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>570</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>571</v>
+      </c>
+      <c r="D79" t="s">
+        <v>572</v>
+      </c>
+      <c r="E79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>574</v>
+      </c>
+      <c r="O79" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>576</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>577</v>
+      </c>
+      <c r="D80" t="s">
+        <v>578</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+      <c r="M80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" t="s">
+        <v>580</v>
+      </c>
+      <c r="O80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>582</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" t="s">
+        <v>584</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>585</v>
+      </c>
+      <c r="K81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>587</v>
+      </c>
+      <c r="O81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>589</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>590</v>
+      </c>
+      <c r="D82" t="s">
+        <v>591</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s">
+        <v>592</v>
+      </c>
+      <c r="M82" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" t="s">
+        <v>593</v>
+      </c>
+      <c r="O82" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D83" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>598</v>
+      </c>
+      <c r="M83" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" t="s">
+        <v>599</v>
+      </c>
+      <c r="O83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>601</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>602</v>
+      </c>
+      <c r="D84" t="s">
+        <v>603</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s">
+        <v>604</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>605</v>
+      </c>
+      <c r="O84" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>607</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>608</v>
+      </c>
+      <c r="D85" t="s">
+        <v>609</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>610</v>
+      </c>
+      <c r="M85" t="s">
+        <v>357</v>
+      </c>
+      <c r="N85" t="s">
+        <v>611</v>
+      </c>
+      <c r="O85" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>402</v>
+      </c>
+      <c r="D86" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>615</v>
+      </c>
+      <c r="M86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N86" t="s">
+        <v>616</v>
+      </c>
+      <c r="O86" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>619</v>
+      </c>
+      <c r="D87" t="s">
+        <v>620</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>621</v>
+      </c>
+      <c r="J87" t="s">
+        <v>622</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>623</v>
+      </c>
+      <c r="O87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>626</v>
+      </c>
+      <c r="I88" t="s">
+        <v>627</v>
+      </c>
+      <c r="J88" t="s">
+        <v>628</v>
+      </c>
+      <c r="P88" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>630</v>
+      </c>
+      <c r="R88" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>631</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>632</v>
+      </c>
+      <c r="D89" t="s">
+        <v>633</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+      <c r="I89" t="s">
+        <v>634</v>
+      </c>
+      <c r="M89" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" t="s">
+        <v>635</v>
+      </c>
+      <c r="O89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>637</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>638</v>
+      </c>
+      <c r="D90" t="s">
+        <v>639</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>640</v>
+      </c>
+      <c r="K90" t="s">
+        <v>641</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>642</v>
+      </c>
+      <c r="O90" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>644</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>645</v>
+      </c>
+      <c r="D91" t="s">
+        <v>646</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s">
+        <v>647</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>648</v>
+      </c>
+      <c r="O91" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>650</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>651</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" t="s">
+        <v>68</v>
+      </c>
+      <c r="I92" t="s">
+        <v>652</v>
+      </c>
+      <c r="J92" t="s">
+        <v>653</v>
+      </c>
+      <c r="K92" t="s">
+        <v>654</v>
+      </c>
+      <c r="L92" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>656</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>657</v>
+      </c>
+      <c r="D93" t="s">
+        <v>658</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s">
+        <v>659</v>
+      </c>
+      <c r="M93" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" t="s">
+        <v>660</v>
+      </c>
+      <c r="O93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>662</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>663</v>
+      </c>
+      <c r="D94" t="s">
+        <v>664</v>
+      </c>
+      <c r="E94" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" t="s">
+        <v>665</v>
+      </c>
+      <c r="M94" t="s">
+        <v>47</v>
+      </c>
+      <c r="N94" t="s">
+        <v>666</v>
+      </c>
+      <c r="O94" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>668</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>669</v>
+      </c>
+      <c r="E95" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" t="s">
+        <v>670</v>
+      </c>
+      <c r="I95" t="s">
+        <v>671</v>
+      </c>
+      <c r="J95" t="s">
+        <v>672</v>
+      </c>
+      <c r="K95" t="s">
+        <v>673</v>
+      </c>
+      <c r="L95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>675</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>676</v>
+      </c>
+      <c r="D96" t="s">
+        <v>677</v>
+      </c>
+      <c r="E96" t="s">
+        <v>58</v>
+      </c>
+      <c r="I96" t="s">
+        <v>678</v>
+      </c>
+      <c r="M96" t="s">
+        <v>47</v>
+      </c>
+      <c r="N96" t="s">
+        <v>679</v>
+      </c>
+      <c r="O96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>681</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>682</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97" t="s">
+        <v>683</v>
+      </c>
+      <c r="J97" t="s">
+        <v>684</v>
+      </c>
+      <c r="K97" t="s">
+        <v>685</v>
+      </c>
+      <c r="L97" t="s">
+        <v>450</v>
+      </c>
+      <c r="P97" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>687</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>688</v>
+      </c>
+      <c r="D98" t="s">
+        <v>689</v>
+      </c>
+      <c r="E98" t="s">
+        <v>348</v>
+      </c>
+      <c r="I98" t="s">
+        <v>690</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" t="s">
+        <v>691</v>
+      </c>
+      <c r="O98" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>693</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>694</v>
+      </c>
+      <c r="E99" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" t="s">
+        <v>524</v>
+      </c>
+      <c r="I99" t="s">
+        <v>695</v>
+      </c>
+      <c r="J99" t="s">
+        <v>696</v>
+      </c>
+      <c r="K99" t="s">
+        <v>697</v>
+      </c>
+      <c r="L99" t="s">
+        <v>698</v>
+      </c>
+      <c r="P99" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>701</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>702</v>
+      </c>
+      <c r="D100" t="s">
+        <v>703</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>704</v>
+      </c>
+      <c r="I100" t="s">
+        <v>705</v>
+      </c>
+      <c r="J100" t="s">
+        <v>706</v>
+      </c>
+      <c r="K100" t="s">
+        <v>707</v>
+      </c>
+      <c r="L100" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>705</v>
+      </c>
+      <c r="R100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>709</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>710</v>
+      </c>
+      <c r="D101" t="s">
+        <v>711</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s">
+        <v>712</v>
+      </c>
+      <c r="M101" t="s">
+        <v>47</v>
+      </c>
+      <c r="N101" t="s">
+        <v>713</v>
+      </c>
+      <c r="O101" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
